--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Clinical Trial Structure Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Clinical Trial Structure Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-14580" yWindow="2400" windowWidth="28590" windowHeight="11580" tabRatio="532" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="6885" yWindow="345" windowWidth="9630" windowHeight="11280" tabRatio="532" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CC003_PCI Brain" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="889">
   <si>
     <t>VolumeType</t>
   </si>
@@ -2153,105 +2153,54 @@
     <t>HN9 Clinical Trial of intermediate risk hpv-positive locoregionally advanced oropharyngeal squamous cell cancer.  Includes CCSEO dosimetry structures and not required by the trial.</t>
   </si>
   <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>Right at risk nodes of level X</t>
-  </si>
-  <si>
-    <t>LX</t>
-  </si>
-  <si>
-    <t>Left at risk nodes of level X</t>
-  </si>
-  <si>
-    <t>CTV 70</t>
-  </si>
-  <si>
     <t>CTV High Risk 70Gy</t>
   </si>
   <si>
-    <t>PTV 70</t>
-  </si>
-  <si>
     <t>PTV High Risk 70Gy</t>
   </si>
   <si>
-    <t>eval PTV 70</t>
-  </si>
-  <si>
     <t>PTV High Risk 70Gy for DVH</t>
   </si>
   <si>
     <t>CTV int L</t>
   </si>
   <si>
-    <t>CTV 63 L</t>
-  </si>
-  <si>
     <t>CTV Intermediate Risk Left 63Gy</t>
   </si>
   <si>
     <t>CTV int R</t>
   </si>
   <si>
-    <t>CTV 63 R</t>
-  </si>
-  <si>
     <t>CTV Intermediate Risk Right 63Gy</t>
   </si>
   <si>
-    <t>PTV 63</t>
-  </si>
-  <si>
     <t>PTV Intermediate Risk 63Gy</t>
   </si>
   <si>
-    <t>eval PTV 63</t>
-  </si>
-  <si>
     <t>PTV Intermediate Risk 63Gy for DVH</t>
   </si>
   <si>
     <t>CTV low L</t>
   </si>
   <si>
-    <t>CTV 56 L</t>
-  </si>
-  <si>
     <t>CTV Low Risk Left 56Gy</t>
   </si>
   <si>
     <t>CTV low R</t>
   </si>
   <si>
-    <t>CTV 56 R</t>
-  </si>
-  <si>
     <t>CTV Low Risk Right 56Gy</t>
   </si>
   <si>
-    <t>PTV 56 L</t>
-  </si>
-  <si>
     <t>PTV low Risk Left 56Gy</t>
   </si>
   <si>
-    <t>PTV 56 R</t>
-  </si>
-  <si>
     <t>PTV low Risk Right 56Gy</t>
   </si>
   <si>
-    <t>PTV 56</t>
-  </si>
-  <si>
     <t>PTV low Risk 56Gy</t>
   </si>
   <si>
-    <t>eval PTV 56</t>
-  </si>
-  <si>
     <t>PTV low Risk 56Gy for DVH</t>
   </si>
   <si>
@@ -2622,13 +2571,136 @@
   </si>
   <si>
     <t xml:space="preserve">MK-3475  Clinical Trial Lung SABR </t>
+  </si>
+  <si>
+    <t>At risk nodes</t>
+  </si>
+  <si>
+    <t>CTV_7000</t>
+  </si>
+  <si>
+    <t>PTV_7000</t>
+  </si>
+  <si>
+    <t>gross tumour volume</t>
+  </si>
+  <si>
+    <t>CTV_6300 L</t>
+  </si>
+  <si>
+    <t>CTV_6300 R</t>
+  </si>
+  <si>
+    <t>PTV_6300</t>
+  </si>
+  <si>
+    <t>CTV_5600 L</t>
+  </si>
+  <si>
+    <t>CTV_5600 R</t>
+  </si>
+  <si>
+    <t>PTV_5600 L</t>
+  </si>
+  <si>
+    <t>PTV_5600 R</t>
+  </si>
+  <si>
+    <t>PTV_5600</t>
+  </si>
+  <si>
+    <t>mod PTV_7000</t>
+  </si>
+  <si>
+    <t>mod PTV_5600</t>
+  </si>
+  <si>
+    <t>mod PTV_6300</t>
+  </si>
+  <si>
+    <t>opt PTV_7000</t>
+  </si>
+  <si>
+    <t>opt PTV_6300 a</t>
+  </si>
+  <si>
+    <t>opt PTV_6300 b</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 L a</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 L b</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 L c</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 R a</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 R b</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 R c</t>
+  </si>
+  <si>
+    <t>PTV low a opt</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 a</t>
+  </si>
+  <si>
+    <t>PTV low Risk  56Gy for optimizer a</t>
+  </si>
+  <si>
+    <t>PTV low b opt</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 b</t>
+  </si>
+  <si>
+    <t>PTV low Risk  56Gy for optimizer b</t>
+  </si>
+  <si>
+    <t>CTV_5600</t>
+  </si>
+  <si>
+    <t>CTV Low Risk 56Gy</t>
+  </si>
+  <si>
+    <t>CTV_6300</t>
+  </si>
+  <si>
+    <t>CTV Intermediate Risk 63Gy</t>
+  </si>
+  <si>
+    <t>CONSTRIC_MUSCLES</t>
+  </si>
+  <si>
+    <t>NON-PTV</t>
+  </si>
+  <si>
+    <t>PTV low Risk  56Gy for optimizer c</t>
+  </si>
+  <si>
+    <t>All non PTV body</t>
+  </si>
+  <si>
+    <t>Constrictor muscle of pharynx</t>
+  </si>
+  <si>
+    <t>PTV low c opt</t>
+  </si>
+  <si>
+    <t>opt PTV_5600 c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2807,6 +2879,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3460,7 +3538,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3729,6 +3807,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6832,7 +6919,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table533791113151321" displayName="Table533791113151321" ref="D2:G81" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table533791113151321" displayName="Table533791113151321" ref="D2:G89" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <sortState ref="D3:I82">
     <sortCondition ref="E3:E82"/>
   </sortState>
@@ -14081,8 +14168,8 @@
   </sheetPr>
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14112,7 +14199,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="1"/>
@@ -14205,7 +14292,7 @@
         <v>399</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="C3" s="6">
         <f>LEN(Table5333523[[#This Row],[ID]])</f>
@@ -14346,7 +14433,7 @@
         <v>226</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="16" t="s">
@@ -14359,7 +14446,7 @@
         <v>407</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I5" s="20" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14428,7 +14515,7 @@
         <v>409</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I6" s="20" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14494,7 +14581,7 @@
         <v>411</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I7" s="20" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14562,7 +14649,7 @@
         <v>413</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I8" s="20" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14630,7 +14717,7 @@
         <v>415</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I9" s="20" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14698,7 +14785,7 @@
         <v>417</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I10" s="20" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14754,7 +14841,7 @@
         <v>515</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>284</v>
@@ -14766,7 +14853,7 @@
         <v>419</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I11" s="20" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14834,7 +14921,7 @@
         <v>421</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I12" s="20" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14902,7 +14989,7 @@
         <v>423</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I13" s="20" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14966,7 +15053,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I14" s="20" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15028,7 +15115,7 @@
         <v>427</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I15" s="20" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15090,7 +15177,7 @@
         <v>428</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I16" s="20" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15152,7 +15239,7 @@
         <v>429</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="I17" s="20" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15214,7 +15301,7 @@
         <v>320</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="I18" s="20" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15335,10 +15422,10 @@
         <v>187</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="I20" s="20" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15397,7 +15484,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>647</v>
@@ -15526,7 +15613,7 @@
         <v>433</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="I23" s="20" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15588,7 +15675,7 @@
         <v>434</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="I24" s="20" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15647,10 +15734,10 @@
         <v>278</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="I25" s="20" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15709,7 +15796,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>661</v>
@@ -15830,13 +15917,13 @@
         <v>277</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="I28" s="20" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15898,7 +15985,7 @@
         <v>436</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="I29" s="20" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15961,7 +16048,7 @@
         <v>64</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="I30" s="20" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16021,10 +16108,10 @@
         <v>290</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="I31" s="20" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16087,7 +16174,7 @@
         <v>439</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="I32" s="20" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16149,7 +16236,7 @@
         <v>440</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="I33" s="20" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16211,7 +16298,7 @@
         <v>443</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="I34" s="20" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16273,7 +16360,7 @@
         <v>104</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="I35" s="20" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16397,7 +16484,7 @@
         <v>67</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="I37" s="20" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16459,7 +16546,7 @@
         <v>71</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="I38" s="20" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16643,10 +16730,10 @@
         <v>241</v>
       </c>
       <c r="F41" s="85" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="I41" s="20" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16706,10 +16793,10 @@
         <v>242</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="I42" s="20" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16769,10 +16856,10 @@
         <v>275</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="G43" s="88" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="I43" s="20" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16835,7 +16922,7 @@
         <v>172</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="I44" s="20" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16898,7 +16985,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="I45" s="101" t="str">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],3,FALSE)</f>
@@ -17018,13 +17105,13 @@
         <v>286</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="I47" s="101" t="str">
         <f>VLOOKUP(D47,[1]!Dictionary[#All],3,FALSE)</f>
@@ -17081,13 +17168,13 @@
         <v>285</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="I48" s="101" t="str">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],3,FALSE)</f>
@@ -17144,13 +17231,13 @@
         <v>263</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="I49" s="101" t="str">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],3,FALSE)</f>
@@ -17213,7 +17300,7 @@
         <v>446</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="I50" s="101" t="str">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],3,FALSE)</f>
@@ -26431,7 +26518,7 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -32031,7 +32118,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36392,10 +36479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36407,7 +36494,7 @@
     <col min="5" max="5" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.140625" style="70" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="70" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="92" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="70" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="70" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
@@ -36661,10 +36748,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>518</v>
+        <v>68</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>519</v>
+        <v>851</v>
       </c>
       <c r="G5" s="74"/>
       <c r="I5" s="20" t="str">
@@ -36725,22 +36812,22 @@
       </c>
       <c r="C6" s="75"/>
       <c r="D6" s="78" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>708</v>
+        <v>518</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>709</v>
+        <v>519</v>
       </c>
       <c r="G6" s="74"/>
       <c r="I6" s="20" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>GTV Nodal</v>
+        <v>GTV Primary</v>
       </c>
       <c r="J6" s="21" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>GTVn</v>
+        <v>GTVp</v>
       </c>
       <c r="K6" s="21" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],5,FALSE)</f>
@@ -36756,7 +36843,7 @@
       </c>
       <c r="N6" s="24" t="str">
         <f>VLOOKUP(D6,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Nodes</v>
+        <v>GTV</v>
       </c>
       <c r="O6" s="25" t="str">
         <f>VLOOKUP(D6,[1]!Colors[#All],3,FALSE)</f>
@@ -36792,10 +36879,10 @@
         <v>266</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>710</v>
+        <v>266</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>711</v>
+        <v>848</v>
       </c>
       <c r="G7" s="74"/>
       <c r="I7" s="20" t="str">
@@ -36853,22 +36940,22 @@
       </c>
       <c r="B8"/>
       <c r="D8" s="78" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>712</v>
+        <v>878</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>713</v>
+        <v>879</v>
       </c>
       <c r="G8" s="74"/>
       <c r="I8" s="20" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Primary</v>
+        <v>CTV Low Risk</v>
       </c>
       <c r="J8" s="21" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTVp</v>
+        <v>CTV_Low</v>
       </c>
       <c r="K8" s="21" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],5,FALSE)</f>
@@ -36888,7 +36975,7 @@
       </c>
       <c r="O8" s="25" t="str">
         <f>VLOOKUP(D8,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV</v>
+        <v>z CTV low</v>
       </c>
       <c r="P8" s="26" t="str">
         <f>IFERROR(VLOOKUP(D8,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -36919,22 +37006,22 @@
         <v>393</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>714</v>
+        <v>880</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>715</v>
+        <v>881</v>
       </c>
       <c r="G9" s="74"/>
       <c r="I9" s="20" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
+        <v>CTV Intermediate Risk</v>
       </c>
       <c r="J9" s="21" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>CTV_Intermediate</v>
       </c>
       <c r="K9" s="21" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],5,FALSE)</f>
@@ -36946,15 +37033,15 @@
       </c>
       <c r="M9" s="23" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="N9" s="24" t="str">
         <f>VLOOKUP(D9,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O9" s="25" t="str">
         <f>VLOOKUP(D9,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV</v>
+        <v>z CTV int</v>
       </c>
       <c r="P9" s="26" t="str">
         <f>IFERROR(VLOOKUP(D9,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -36985,22 +37072,22 @@
         <v>390</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>716</v>
+        <v>849</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="G10" s="74"/>
       <c r="I10" s="20" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
+        <v>CTV Primary</v>
       </c>
       <c r="J10" s="21" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>CTVp</v>
       </c>
       <c r="K10" s="21" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37012,27 +37099,27 @@
       </c>
       <c r="M10" s="23" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="N10" s="24" t="str">
         <f>VLOOKUP(D10,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O10" s="25" t="str">
         <f>VLOOKUP(D10,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV eval</v>
-      </c>
-      <c r="P10" s="26">
+        <v>z CTV</v>
+      </c>
+      <c r="P10" s="26" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q10" s="27">
+        <v/>
+      </c>
+      <c r="Q10" s="27" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="28">
+        <v/>
+      </c>
+      <c r="R10" s="28" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="S10" s="26" t="str">
         <f>IFERROR(VLOOKUP(D10,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -37051,22 +37138,22 @@
         <v>704</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>718</v>
+        <v>25</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>719</v>
+        <v>850</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G11" s="74"/>
       <c r="I11" s="20" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Intermediate Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="J11" s="21" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Intermediate</v>
+        <v>PTVp</v>
       </c>
       <c r="K11" s="21" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37078,15 +37165,15 @@
       </c>
       <c r="M11" s="23" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="N11" s="24" t="str">
         <f>VLOOKUP(D11,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O11" s="25" t="str">
         <f>VLOOKUP(D11,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int L</v>
+        <v>z PTV</v>
       </c>
       <c r="P11" s="26" t="str">
         <f>IFERROR(VLOOKUP(D11,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37117,22 +37204,22 @@
         <v>706</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>721</v>
+        <v>430</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>722</v>
+        <v>860</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="G12" s="74"/>
       <c r="I12" s="20" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Intermediate Risk</v>
+        <v>PTV Primary</v>
       </c>
       <c r="J12" s="21" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Intermediate</v>
+        <v>PTVp</v>
       </c>
       <c r="K12" s="21" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37144,27 +37231,27 @@
       </c>
       <c r="M12" s="23" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="N12" s="24" t="str">
         <f>VLOOKUP(D12,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O12" s="25" t="str">
         <f>VLOOKUP(D12,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV int R</v>
-      </c>
-      <c r="P12" s="26" t="str">
+        <v>z PTV eval</v>
+      </c>
+      <c r="P12" s="26">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="27" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="Q12" s="27">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" s="28">
         <f>IFERROR(VLOOKUP(D12,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S12" s="26" t="str">
         <f>IFERROR(VLOOKUP(D12,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -37183,22 +37270,22 @@
         <v>232</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>227</v>
+        <v>711</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>724</v>
+        <v>852</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="G13" s="74"/>
       <c r="I13" s="20" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>CTV Intermediate Risk</v>
       </c>
       <c r="J13" s="21" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>CTV_Intermediate</v>
       </c>
       <c r="K13" s="21" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37210,15 +37297,15 @@
       </c>
       <c r="M13" s="23" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="N13" s="24" t="str">
         <f>VLOOKUP(D13,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O13" s="25" t="str">
         <f>VLOOKUP(D13,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int</v>
+        <v>z CTV int L</v>
       </c>
       <c r="P13" s="26" t="str">
         <f>IFERROR(VLOOKUP(D13,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37243,22 +37330,22 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" s="78" t="s">
-        <v>571</v>
+        <v>713</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>726</v>
+        <v>853</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="G14" s="74"/>
       <c r="I14" s="20" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>CTV Intermediate Risk</v>
       </c>
       <c r="J14" s="21" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>CTV_Intermediate</v>
       </c>
       <c r="K14" s="21" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37270,27 +37357,27 @@
       </c>
       <c r="M14" s="23" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="N14" s="24" t="str">
         <f>VLOOKUP(D14,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O14" s="25" t="str">
         <f>VLOOKUP(D14,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int eval</v>
-      </c>
-      <c r="P14" s="26">
+        <v>z CTV int R</v>
+      </c>
+      <c r="P14" s="26" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q14" s="27">
+        <v/>
+      </c>
+      <c r="Q14" s="27" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="28">
+        <v/>
+      </c>
+      <c r="R14" s="28" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="S14" s="26" t="str">
         <f>IFERROR(VLOOKUP(D14,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -37303,22 +37390,22 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" s="78" t="s">
-        <v>728</v>
+        <v>227</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>729</v>
+        <v>854</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G15" s="74"/>
       <c r="I15" s="20" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Low Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="J15" s="21" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Low</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="K15" s="21" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37330,15 +37417,15 @@
       </c>
       <c r="M15" s="23" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="N15" s="24" t="str">
         <f>VLOOKUP(D15,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O15" s="25" t="str">
         <f>VLOOKUP(D15,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low L</v>
+        <v>z PTV int</v>
       </c>
       <c r="P15" s="26" t="str">
         <f>IFERROR(VLOOKUP(D15,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37363,22 +37450,22 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" s="78" t="s">
-        <v>731</v>
+        <v>571</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>732</v>
+        <v>862</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="G16" s="74"/>
       <c r="I16" s="20" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>CTV Low Risk</v>
+        <v>PTV Intermediate Risk</v>
       </c>
       <c r="J16" s="21" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>CTV_Low</v>
+        <v>PTV_Intermediate</v>
       </c>
       <c r="K16" s="21" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37390,27 +37477,27 @@
       </c>
       <c r="M16" s="23" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="N16" s="24" t="str">
         <f>VLOOKUP(D16,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>CTV</v>
+        <v>PTV</v>
       </c>
       <c r="O16" s="25" t="str">
         <f>VLOOKUP(D16,[1]!Colors[#All],3,FALSE)</f>
-        <v>z CTV low R</v>
-      </c>
-      <c r="P16" s="26" t="str">
+        <v>z PTV int eval</v>
+      </c>
+      <c r="P16" s="26">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q16" s="27" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="Q16" s="27">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R16" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="28">
         <f>IFERROR(VLOOKUP(D16,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S16" s="26" t="str">
         <f>IFERROR(VLOOKUP(D16,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -37423,22 +37510,22 @@
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="78" t="s">
-        <v>559</v>
+        <v>717</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>734</v>
+        <v>855</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="G17" s="74"/>
       <c r="I17" s="20" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>CTV Low Risk</v>
       </c>
       <c r="J17" s="21" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>CTV_Low</v>
       </c>
       <c r="K17" s="21" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37450,15 +37537,15 @@
       </c>
       <c r="M17" s="23" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="N17" s="24" t="str">
         <f>VLOOKUP(D17,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O17" s="25" t="str">
         <f>VLOOKUP(D17,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low L</v>
+        <v>z CTV low L</v>
       </c>
       <c r="P17" s="26" t="str">
         <f>IFERROR(VLOOKUP(D17,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37483,22 +37570,22 @@
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="78" t="s">
-        <v>556</v>
+        <v>719</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>736</v>
+        <v>856</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="G18" s="74"/>
       <c r="I18" s="20" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>CTV Low Risk</v>
       </c>
       <c r="J18" s="21" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>CTV_Low</v>
       </c>
       <c r="K18" s="21" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37510,15 +37597,15 @@
       </c>
       <c r="M18" s="23" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="N18" s="24" t="str">
         <f>VLOOKUP(D18,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>CTV</v>
       </c>
       <c r="O18" s="25" t="str">
         <f>VLOOKUP(D18,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low R</v>
+        <v>z CTV low R</v>
       </c>
       <c r="P18" s="26" t="str">
         <f>IFERROR(VLOOKUP(D18,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37543,13 +37630,13 @@
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="78" t="s">
-        <v>269</v>
+        <v>559</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>738</v>
+        <v>857</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="G19" s="74"/>
       <c r="I19" s="20" t="str">
@@ -37578,7 +37665,7 @@
       </c>
       <c r="O19" s="25" t="str">
         <f>VLOOKUP(D19,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low</v>
+        <v>z PTV low L</v>
       </c>
       <c r="P19" s="26" t="str">
         <f>IFERROR(VLOOKUP(D19,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37603,13 +37690,13 @@
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="78" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>740</v>
+        <v>858</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="G20" s="74"/>
       <c r="I20" s="20" t="str">
@@ -37638,19 +37725,19 @@
       </c>
       <c r="O20" s="25" t="str">
         <f>VLOOKUP(D20,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low eval</v>
-      </c>
-      <c r="P20" s="26">
+        <v>z PTV low R</v>
+      </c>
+      <c r="P20" s="26" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q20" s="27">
+        <v/>
+      </c>
+      <c r="Q20" s="27" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="28">
+        <v/>
+      </c>
+      <c r="R20" s="28" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="S20" s="26" t="str">
         <f>IFERROR(VLOOKUP(D20,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -37663,42 +37750,42 @@
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D21" s="78" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>110</v>
+        <v>859</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="G21" s="74"/>
       <c r="I21" s="20" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Brain</v>
-      </c>
-      <c r="J21" s="21">
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J21" s="21" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>50801</v>
+        <v>PTV_Low</v>
       </c>
       <c r="K21" s="21" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="L21" s="22" t="str">
         <f>VLOOKUP(D21,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="M21" s="23" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>PTV</v>
       </c>
       <c r="N21" s="24" t="str">
         <f>VLOOKUP(D21,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>PTV</v>
       </c>
       <c r="O21" s="25" t="str">
         <f>VLOOKUP(D21,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Brain</v>
+        <v>z PTV low</v>
       </c>
       <c r="P21" s="26" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37712,65 +37799,65 @@
         <f>IFERROR(VLOOKUP(D21,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="26" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>10</v>
-      </c>
-      <c r="T21" s="28">
+        <v/>
+      </c>
+      <c r="T21" s="28" t="str">
         <f>IFERROR(VLOOKUP(D21,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>50</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" s="78" t="s">
-        <v>321</v>
+        <v>547</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>743</v>
+        <v>861</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="G22" s="74"/>
       <c r="I22" s="20" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Brainstem</v>
-      </c>
-      <c r="J22" s="21">
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J22" s="21" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>79876</v>
+        <v>PTV_Low</v>
       </c>
       <c r="K22" s="21" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="L22" s="22" t="str">
         <f>VLOOKUP(D22,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="M22" s="23" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Organ</v>
+        <v>PTV</v>
       </c>
       <c r="N22" s="24" t="str">
         <f>VLOOKUP(D22,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Organ</v>
+        <v>PTV</v>
       </c>
       <c r="O22" s="25" t="str">
         <f>VLOOKUP(D22,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Brain Stem</v>
-      </c>
-      <c r="P22" s="26" t="str">
+        <v>z PTV low eval</v>
+      </c>
+      <c r="P22" s="26">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="27" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="Q22" s="27">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
         <f>IFERROR(VLOOKUP(D22,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S22" s="26" t="str">
         <f>IFERROR(VLOOKUP(D22,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -37783,22 +37870,22 @@
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="78" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>745</v>
+        <v>110</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G23" s="74"/>
       <c r="I23" s="20" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right optic nerve</v>
+        <v>Brain</v>
       </c>
       <c r="J23" s="21">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>50875</v>
+        <v>50801</v>
       </c>
       <c r="K23" s="21" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37818,7 +37905,7 @@
       </c>
       <c r="O23" s="25" t="str">
         <f>VLOOKUP(D23,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Optic Nerve R</v>
+        <v>z Brain</v>
       </c>
       <c r="P23" s="26" t="str">
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37832,33 +37919,33 @@
         <f>IFERROR(VLOOKUP(D23,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S23" s="26" t="str">
+      <c r="S23" s="26">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T23" s="28" t="str">
+        <v>10</v>
+      </c>
+      <c r="T23" s="28">
         <f>IFERROR(VLOOKUP(D23,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" s="78" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="F24" s="74" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="G24" s="74"/>
       <c r="I24" s="20" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left optic nerve</v>
+        <v>Brainstem</v>
       </c>
       <c r="J24" s="21">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>50878</v>
+        <v>79876</v>
       </c>
       <c r="K24" s="21" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37878,7 +37965,7 @@
       </c>
       <c r="O24" s="25" t="str">
         <f>VLOOKUP(D24,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Optic Nerve L</v>
+        <v>z Brain Stem</v>
       </c>
       <c r="P24" s="26" t="str">
         <f>IFERROR(VLOOKUP(D24,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37903,22 +37990,22 @@
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" s="78" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>123</v>
+        <v>728</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="G25" s="74"/>
       <c r="I25" s="20" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Optic chiasm</v>
+        <v>Right optic nerve</v>
       </c>
       <c r="J25" s="21">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>62045</v>
+        <v>50875</v>
       </c>
       <c r="K25" s="21" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37938,7 +38025,7 @@
       </c>
       <c r="O25" s="25" t="str">
         <f>VLOOKUP(D25,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Optic Chiasm</v>
+        <v>z Optic Nerve R</v>
       </c>
       <c r="P25" s="26" t="str">
         <f>IFERROR(VLOOKUP(D25,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -37963,22 +38050,22 @@
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D26" s="82" t="s">
-        <v>750</v>
+        <v>239</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F26" s="74" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G26" s="74"/>
       <c r="I26" s="20" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Set of optic nerves</v>
+        <v>Left optic nerve</v>
       </c>
       <c r="J26" s="21">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>264799</v>
+        <v>50878</v>
       </c>
       <c r="K26" s="21" t="str">
         <f>VLOOKUP(D26,[1]!Dictionary[#All],5,FALSE)</f>
@@ -37998,7 +38085,7 @@
       </c>
       <c r="O26" s="25" t="str">
         <f>VLOOKUP(D26,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Ovary R</v>
+        <v>z Optic Nerve L</v>
       </c>
       <c r="P26" s="26" t="str">
         <f>IFERROR(VLOOKUP(D26,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38023,22 +38110,22 @@
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D27" s="78" t="s">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F27" s="74" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="G27" s="74"/>
       <c r="I27" s="20" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right eyeball</v>
+        <v>Optic chiasm</v>
       </c>
       <c r="J27" s="21">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>12514</v>
+        <v>62045</v>
       </c>
       <c r="K27" s="21" t="str">
         <f>VLOOKUP(D27,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38058,7 +38145,7 @@
       </c>
       <c r="O27" s="25" t="str">
         <f>VLOOKUP(D27,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Orbit R</v>
+        <v>z Optic Chiasm</v>
       </c>
       <c r="P27" s="26" t="str">
         <f>IFERROR(VLOOKUP(D27,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38083,22 +38170,22 @@
     </row>
     <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="78" t="s">
-        <v>322</v>
+        <v>733</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>111</v>
+        <v>734</v>
       </c>
       <c r="F28" s="74" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="G28" s="74"/>
       <c r="I28" s="20" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left eyeball</v>
+        <v>Set of optic nerves</v>
       </c>
       <c r="J28" s="21">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>12515</v>
+        <v>264799</v>
       </c>
       <c r="K28" s="21" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38118,7 +38205,7 @@
       </c>
       <c r="O28" s="25" t="str">
         <f>VLOOKUP(D28,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Orbit L</v>
+        <v>z Ovary R</v>
       </c>
       <c r="P28" s="26" t="str">
         <f>IFERROR(VLOOKUP(D28,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38143,22 +38230,22 @@
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D29" s="78" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="G29" s="74"/>
       <c r="I29" s="20" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right lens</v>
+        <v>Right eyeball</v>
       </c>
       <c r="J29" s="21">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>58242</v>
+        <v>12514</v>
       </c>
       <c r="K29" s="21" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38178,7 +38265,7 @@
       </c>
       <c r="O29" s="25" t="str">
         <f>VLOOKUP(D29,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lens R</v>
+        <v>z Orbit R</v>
       </c>
       <c r="P29" s="26" t="str">
         <f>IFERROR(VLOOKUP(D29,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38203,22 +38290,22 @@
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="78" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F30" s="74" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="G30" s="74"/>
       <c r="I30" s="20" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left lens</v>
+        <v>Left eyeball</v>
       </c>
       <c r="J30" s="21">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>58243</v>
+        <v>12515</v>
       </c>
       <c r="K30" s="21" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38238,7 +38325,7 @@
       </c>
       <c r="O30" s="25" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lens L</v>
+        <v>z Orbit L</v>
       </c>
       <c r="P30" s="26" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38263,22 +38350,22 @@
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D31" s="78" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>757</v>
+        <v>120</v>
       </c>
       <c r="F31" s="74" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="G31" s="74"/>
       <c r="I31" s="20" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right eyeball</v>
+        <v>Right lens</v>
       </c>
       <c r="J31" s="21">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>12514</v>
+        <v>58242</v>
       </c>
       <c r="K31" s="21" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38298,7 +38385,7 @@
       </c>
       <c r="O31" s="25" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Orbit R</v>
+        <v>z Lens R</v>
       </c>
       <c r="P31" s="26" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38323,22 +38410,22 @@
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D32" s="78" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>759</v>
+        <v>118</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="G32" s="74"/>
       <c r="I32" s="20" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left eyeball</v>
+        <v>Left lens</v>
       </c>
       <c r="J32" s="21">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>12515</v>
+        <v>58243</v>
       </c>
       <c r="K32" s="21" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38358,7 +38445,7 @@
       </c>
       <c r="O32" s="25" t="str">
         <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Orbit L</v>
+        <v>z Lens L</v>
       </c>
       <c r="P32" s="26" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38383,22 +38470,22 @@
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D33" s="78" t="s">
-        <v>761</v>
+        <v>323</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="F33" s="74" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G33" s="74"/>
       <c r="I33" s="20" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right internal ear</v>
+        <v>Right eyeball</v>
       </c>
       <c r="J33" s="21">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>61020</v>
+        <v>12514</v>
       </c>
       <c r="K33" s="21" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38418,7 +38505,7 @@
       </c>
       <c r="O33" s="25" t="str">
         <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Cochlea R</v>
+        <v>z Orbit R</v>
       </c>
       <c r="P33" s="26" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38443,22 +38530,22 @@
     </row>
     <row r="34" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D34" s="78" t="s">
-        <v>764</v>
+        <v>322</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="G34" s="74"/>
       <c r="I34" s="20" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left internal ear</v>
+        <v>Left eyeball</v>
       </c>
       <c r="J34" s="21">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>61021</v>
+        <v>12515</v>
       </c>
       <c r="K34" s="21" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38478,7 +38565,7 @@
       </c>
       <c r="O34" s="25" t="str">
         <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Cochlea L</v>
+        <v>z Orbit L</v>
       </c>
       <c r="P34" s="26" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38503,22 +38590,22 @@
     </row>
     <row r="35" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D35" s="78" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="E35" s="74" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="F35" s="74" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="G35" s="74"/>
       <c r="I35" s="20" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right middle ear</v>
+        <v>Right internal ear</v>
       </c>
       <c r="J35" s="21">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>56514</v>
+        <v>61020</v>
       </c>
       <c r="K35" s="21" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38563,22 +38650,22 @@
     </row>
     <row r="36" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D36" s="78" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="F36" s="74" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="G36" s="59"/>
       <c r="I36" s="20" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left middle ear</v>
+        <v>Left internal ear</v>
       </c>
       <c r="J36" s="21">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>56515</v>
+        <v>61021</v>
       </c>
       <c r="K36" s="21" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38623,22 +38710,22 @@
     </row>
     <row r="37" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D37" s="78" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="F37" s="74" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="G37" s="59"/>
       <c r="I37" s="20" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right ear</v>
+        <v>Right middle ear</v>
       </c>
       <c r="J37" s="21">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>53641</v>
+        <v>56514</v>
       </c>
       <c r="K37" s="21" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38683,22 +38770,22 @@
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="78" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="E38" s="74" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F38" s="74" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="G38" s="59"/>
       <c r="I38" s="20" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left ear</v>
+        <v>Left middle ear</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>53642</v>
+        <v>56515</v>
       </c>
       <c r="K38" s="21" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38743,22 +38830,22 @@
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D39" s="78" t="s">
-        <v>258</v>
+        <v>756</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="F39" s="74" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="G39" s="59"/>
       <c r="I39" s="20" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right parotid gland</v>
+        <v>Right ear</v>
       </c>
       <c r="J39" s="21">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59797</v>
+        <v>53641</v>
       </c>
       <c r="K39" s="21" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38778,7 +38865,7 @@
       </c>
       <c r="O39" s="25" t="str">
         <f>VLOOKUP(D39,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid R</v>
+        <v>z Cochlea R</v>
       </c>
       <c r="P39" s="26" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38803,22 +38890,22 @@
     </row>
     <row r="40" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D40" s="78" t="s">
-        <v>257</v>
+        <v>759</v>
       </c>
       <c r="E40" s="74" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="F40" s="74" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="G40" s="74"/>
       <c r="I40" s="20" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left parotid gland</v>
+        <v>Left ear</v>
       </c>
       <c r="J40" s="21">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59798</v>
+        <v>53642</v>
       </c>
       <c r="K40" s="21" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38838,7 +38925,7 @@
       </c>
       <c r="O40" s="25" t="str">
         <f>VLOOKUP(D40,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid L</v>
+        <v>z Cochlea L</v>
       </c>
       <c r="P40" s="26" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38863,30 +38950,30 @@
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D41" s="78" t="s">
-        <v>616</v>
+        <v>258</v>
       </c>
       <c r="E41" s="74" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="F41" s="74" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="G41" s="74"/>
       <c r="I41" s="20" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Parotid Glands</v>
-      </c>
-      <c r="J41" s="21" t="str">
+        <v>Right parotid gland</v>
+      </c>
+      <c r="J41" s="21">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Parotids</v>
+        <v>59797</v>
       </c>
       <c r="K41" s="21" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L41" s="22" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M41" s="23" t="str">
         <f>VLOOKUP(D41,[1]!VolumeType[#All],2,FALSE)</f>
@@ -38898,7 +38985,7 @@
       </c>
       <c r="O41" s="25" t="str">
         <f>VLOOKUP(D41,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid B</v>
+        <v>z Parotid R</v>
       </c>
       <c r="P41" s="26" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38923,22 +39010,22 @@
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="78" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="F42" s="74" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="G42" s="74"/>
       <c r="I42" s="20" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right submandibular gland</v>
+        <v>Left parotid gland</v>
       </c>
       <c r="J42" s="21">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59802</v>
+        <v>59798</v>
       </c>
       <c r="K42" s="21" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],5,FALSE)</f>
@@ -38958,7 +39045,7 @@
       </c>
       <c r="O42" s="25" t="str">
         <f>VLOOKUP(D42,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSubmandibular R</v>
+        <v>z Parotid L</v>
       </c>
       <c r="P42" s="26" t="str">
         <f>IFERROR(VLOOKUP(D42,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -38983,30 +39070,30 @@
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D43" s="78" t="s">
-        <v>259</v>
+        <v>616</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="F43" s="74" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="G43" s="74"/>
       <c r="I43" s="20" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left submandibular gland</v>
-      </c>
-      <c r="J43" s="21">
+        <v>Parotid Glands</v>
+      </c>
+      <c r="J43" s="21" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>59803</v>
+        <v>Parotids</v>
       </c>
       <c r="K43" s="21" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="L43" s="22" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="M43" s="23" t="str">
         <f>VLOOKUP(D43,[1]!VolumeType[#All],2,FALSE)</f>
@@ -39018,7 +39105,7 @@
       </c>
       <c r="O43" s="25" t="str">
         <f>VLOOKUP(D43,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSubmandibular L</v>
+        <v>z Parotid B</v>
       </c>
       <c r="P43" s="26" t="str">
         <f>IFERROR(VLOOKUP(D43,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39043,30 +39130,30 @@
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D44" s="78" t="s">
-        <v>643</v>
+        <v>260</v>
       </c>
       <c r="E44" s="74" t="s">
-        <v>643</v>
+        <v>767</v>
       </c>
       <c r="F44" s="74" t="s">
-        <v>644</v>
+        <v>768</v>
       </c>
       <c r="G44" s="59"/>
       <c r="I44" s="20" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Submandibular Glands</v>
-      </c>
-      <c r="J44" s="21" t="str">
+        <v>Right submandibular gland</v>
+      </c>
+      <c r="J44" s="21">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Submandibular</v>
+        <v>59802</v>
       </c>
       <c r="K44" s="21" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L44" s="22" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M44" s="23" t="str">
         <f>VLOOKUP(D44,[1]!VolumeType[#All],2,FALSE)</f>
@@ -39078,7 +39165,7 @@
       </c>
       <c r="O44" s="25" t="str">
         <f>VLOOKUP(D44,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSubmandibular B</v>
+        <v>zSubmandibular R</v>
       </c>
       <c r="P44" s="26" t="str">
         <f>IFERROR(VLOOKUP(D44,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39103,22 +39190,22 @@
     </row>
     <row r="45" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D45" s="52" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="E45" s="74" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="G45" s="74"/>
       <c r="I45" s="20" t="str">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Mandible</v>
+        <v>Left submandibular gland</v>
       </c>
       <c r="J45" s="21">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>52748</v>
+        <v>59803</v>
       </c>
       <c r="K45" s="21" t="str">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39138,7 +39225,7 @@
       </c>
       <c r="O45" s="25" t="str">
         <f>VLOOKUP(D45,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bone Rendering</v>
+        <v>zSubmandibular L</v>
       </c>
       <c r="P45" s="26" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39152,41 +39239,41 @@
         <f>IFERROR(VLOOKUP(D45,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="26" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>200</v>
-      </c>
-      <c r="T45" s="28">
+        <v/>
+      </c>
+      <c r="T45" s="28" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>2500</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D46" s="78" t="s">
-        <v>145</v>
+        <v>643</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>790</v>
+        <v>643</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>791</v>
+        <v>644</v>
       </c>
       <c r="G46" s="74"/>
       <c r="I46" s="20" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Mandible</v>
-      </c>
-      <c r="J46" s="21">
+        <v>Submandibular Glands</v>
+      </c>
+      <c r="J46" s="21" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>52748</v>
+        <v>Submandibular</v>
       </c>
       <c r="K46" s="21" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="L46" s="22" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="M46" s="23" t="str">
         <f>VLOOKUP(D46,[1]!VolumeType[#All],2,FALSE)</f>
@@ -39198,7 +39285,7 @@
       </c>
       <c r="O46" s="25" t="str">
         <f>VLOOKUP(D46,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bone Rendering</v>
+        <v>zSubmandibular B</v>
       </c>
       <c r="P46" s="26" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39212,13 +39299,13 @@
         <f>IFERROR(VLOOKUP(D46,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="26" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>200</v>
-      </c>
-      <c r="T46" s="28">
+        <v/>
+      </c>
+      <c r="T46" s="28" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>2500</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="4:20" x14ac:dyDescent="0.25">
@@ -39226,10 +39313,10 @@
         <v>145</v>
       </c>
       <c r="E47" s="74" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="G47" s="74"/>
       <c r="I47" s="20" t="str">
@@ -39283,22 +39370,22 @@
     </row>
     <row r="48" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D48" s="78" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>108</v>
+        <v>774</v>
       </c>
       <c r="G48" s="74"/>
       <c r="I48" s="20" t="str">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Larynx</v>
+        <v>Mandible</v>
       </c>
       <c r="J48" s="21">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55097</v>
+        <v>52748</v>
       </c>
       <c r="K48" s="21" t="str">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39318,7 +39405,7 @@
       </c>
       <c r="O48" s="25" t="str">
         <f>VLOOKUP(D48,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Larynx</v>
+        <v>z Bone Rendering</v>
       </c>
       <c r="P48" s="26" t="str">
         <f>IFERROR(VLOOKUP(D48,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39332,33 +39419,33 @@
         <f>IFERROR(VLOOKUP(D48,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S48" s="26" t="str">
+      <c r="S48" s="26">
         <f>IFERROR(VLOOKUP(D48,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T48" s="28" t="str">
+        <v>200</v>
+      </c>
+      <c r="T48" s="28">
         <f>IFERROR(VLOOKUP(D48,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>2500</v>
       </c>
     </row>
     <row r="49" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D49" s="78" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="E49" s="74" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="F49" s="74" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="G49" s="59"/>
       <c r="I49" s="20" t="str">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Larynx</v>
+        <v>Mandible</v>
       </c>
       <c r="J49" s="21">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55097</v>
+        <v>52748</v>
       </c>
       <c r="K49" s="21" t="str">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39378,7 +39465,7 @@
       </c>
       <c r="O49" s="25" t="str">
         <f>VLOOKUP(D49,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Larynx</v>
+        <v>z Bone Rendering</v>
       </c>
       <c r="P49" s="26" t="str">
         <f>IFERROR(VLOOKUP(D49,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39392,33 +39479,33 @@
         <f>IFERROR(VLOOKUP(D49,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S49" s="26" t="str">
+      <c r="S49" s="26">
         <f>IFERROR(VLOOKUP(D49,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T49" s="28" t="str">
+        <v>200</v>
+      </c>
+      <c r="T49" s="28">
         <f>IFERROR(VLOOKUP(D49,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>2500</v>
       </c>
     </row>
     <row r="50" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D50" s="78" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E50" s="74" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="F50" s="74" t="s">
-        <v>798</v>
+        <v>108</v>
       </c>
       <c r="G50" s="74"/>
       <c r="I50" s="20" t="str">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Pharynx</v>
+        <v>Larynx</v>
       </c>
       <c r="J50" s="21">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>46688</v>
+        <v>55097</v>
       </c>
       <c r="K50" s="21" t="str">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39438,7 +39525,7 @@
       </c>
       <c r="O50" s="25" t="str">
         <f>VLOOKUP(D50,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Pharynx</v>
+        <v>z Larynx</v>
       </c>
       <c r="P50" s="26" t="str">
         <f>IFERROR(VLOOKUP(D50,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39463,22 +39550,22 @@
     </row>
     <row r="51" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D51" s="78" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="E51" s="74" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="F51" s="74" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="G51" s="74"/>
       <c r="I51" s="20" t="str">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Spinal cord</v>
+        <v>Larynx</v>
       </c>
       <c r="J51" s="21">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7647</v>
+        <v>55097</v>
       </c>
       <c r="K51" s="21" t="str">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39498,7 +39585,7 @@
       </c>
       <c r="O51" s="25" t="str">
         <f>VLOOKUP(D51,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Spinal Canal</v>
+        <v>z Larynx</v>
       </c>
       <c r="P51" s="26" t="str">
         <f>IFERROR(VLOOKUP(D51,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39512,33 +39599,33 @@
         <f>IFERROR(VLOOKUP(D51,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S51" s="26">
+      <c r="S51" s="26" t="str">
         <f>IFERROR(VLOOKUP(D51,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="T51" s="28">
+        <v/>
+      </c>
+      <c r="T51" s="28" t="str">
         <f>IFERROR(VLOOKUP(D51,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>40</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D52" s="78" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="E52" s="74" t="s">
-        <v>458</v>
+        <v>780</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="G52" s="74"/>
       <c r="I52" s="20" t="str">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Spinal cord</v>
+        <v>Pharynx</v>
       </c>
       <c r="J52" s="21">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7647</v>
+        <v>46688</v>
       </c>
       <c r="K52" s="21" t="str">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39558,7 +39645,7 @@
       </c>
       <c r="O52" s="25" t="str">
         <f>VLOOKUP(D52,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Spinal Canal</v>
+        <v>z Pharynx</v>
       </c>
       <c r="P52" s="26" t="str">
         <f>IFERROR(VLOOKUP(D52,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39572,33 +39659,33 @@
         <f>IFERROR(VLOOKUP(D52,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S52" s="26">
+      <c r="S52" s="26" t="str">
         <f>IFERROR(VLOOKUP(D52,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>20</v>
-      </c>
-      <c r="T52" s="28">
+        <v/>
+      </c>
+      <c r="T52" s="28" t="str">
         <f>IFERROR(VLOOKUP(D52,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>40</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D53" s="78" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E53" s="74" t="s">
-        <v>119</v>
+        <v>782</v>
       </c>
       <c r="F53" s="74" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="G53" s="74"/>
       <c r="I53" s="20" t="str">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Esophagus</v>
+        <v>Spinal cord</v>
       </c>
       <c r="J53" s="21">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7131</v>
+        <v>7647</v>
       </c>
       <c r="K53" s="21" t="str">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39618,7 +39705,7 @@
       </c>
       <c r="O53" s="25" t="str">
         <f>VLOOKUP(D53,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Esophagus</v>
+        <v>z Spinal Canal</v>
       </c>
       <c r="P53" s="26" t="str">
         <f>IFERROR(VLOOKUP(D53,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39632,33 +39719,33 @@
         <f>IFERROR(VLOOKUP(D53,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S53" s="26" t="str">
+      <c r="S53" s="26">
         <f>IFERROR(VLOOKUP(D53,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T53" s="28" t="str">
+        <v>20</v>
+      </c>
+      <c r="T53" s="28">
         <f>IFERROR(VLOOKUP(D53,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D54" s="78" t="s">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="E54" s="74" t="s">
-        <v>208</v>
+        <v>458</v>
       </c>
       <c r="F54" s="74" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="G54" s="74"/>
       <c r="I54" s="20" t="str">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left brachial nerve plexus</v>
+        <v>Spinal cord</v>
       </c>
       <c r="J54" s="21">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>45245</v>
+        <v>7647</v>
       </c>
       <c r="K54" s="21" t="str">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39678,7 +39765,7 @@
       </c>
       <c r="O54" s="25" t="str">
         <f>VLOOKUP(D54,[1]!Colors[#All],3,FALSE)</f>
-        <v>zBrachialPlexusL</v>
+        <v>z Spinal Canal</v>
       </c>
       <c r="P54" s="26" t="str">
         <f>IFERROR(VLOOKUP(D54,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39692,33 +39779,33 @@
         <f>IFERROR(VLOOKUP(D54,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S54" s="26" t="str">
+      <c r="S54" s="26">
         <f>IFERROR(VLOOKUP(D54,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T54" s="28" t="str">
+        <v>20</v>
+      </c>
+      <c r="T54" s="28">
         <f>IFERROR(VLOOKUP(D54,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D55" s="78" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="E55" s="74" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G55" s="74"/>
       <c r="I55" s="20" t="str">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right brachial nerve plexus</v>
+        <v>Esophagus</v>
       </c>
       <c r="J55" s="21">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>45244</v>
+        <v>7131</v>
       </c>
       <c r="K55" s="21" t="str">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39738,7 +39825,7 @@
       </c>
       <c r="O55" s="25" t="str">
         <f>VLOOKUP(D55,[1]!Colors[#All],3,FALSE)</f>
-        <v>zBrachialPlexusR</v>
+        <v>z Esophagus</v>
       </c>
       <c r="P55" s="26" t="str">
         <f>IFERROR(VLOOKUP(D55,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39763,22 +39850,22 @@
     </row>
     <row r="56" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D56" s="78" t="s">
-        <v>805</v>
+        <v>287</v>
       </c>
       <c r="E56" s="74" t="s">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="G56" s="74"/>
       <c r="I56" s="20" t="str">
         <f>VLOOKUP(D56,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Brachial nerve plexus</v>
+        <v>Left brachial nerve plexus</v>
       </c>
       <c r="J56" s="21">
         <f>VLOOKUP(D56,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>5906</v>
+        <v>45245</v>
       </c>
       <c r="K56" s="21" t="str">
         <f>VLOOKUP(D56,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39798,7 +39885,7 @@
       </c>
       <c r="O56" s="25" t="str">
         <f>VLOOKUP(D56,[1]!Colors[#All],3,FALSE)</f>
-        <v>z BronchialTree</v>
+        <v>zBrachialPlexusL</v>
       </c>
       <c r="P56" s="26" t="str">
         <f>IFERROR(VLOOKUP(D56,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39823,22 +39910,22 @@
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D57" s="78" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E57" s="74" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F57" s="74" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="G57" s="74"/>
       <c r="I57" s="20" t="str">
         <f>VLOOKUP(D57,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right lung</v>
+        <v>Right brachial nerve plexus</v>
       </c>
       <c r="J57" s="21">
         <f>VLOOKUP(D57,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7309</v>
+        <v>45244</v>
       </c>
       <c r="K57" s="21" t="str">
         <f>VLOOKUP(D57,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39858,7 +39945,7 @@
       </c>
       <c r="O57" s="25" t="str">
         <f>VLOOKUP(D57,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lung R</v>
+        <v>zBrachialPlexusR</v>
       </c>
       <c r="P57" s="26" t="str">
         <f>IFERROR(VLOOKUP(D57,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39872,33 +39959,33 @@
         <f>IFERROR(VLOOKUP(D57,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S57" s="26">
+      <c r="S57" s="26" t="str">
         <f>IFERROR(VLOOKUP(D57,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>-700</v>
-      </c>
-      <c r="T57" s="28">
+        <v/>
+      </c>
+      <c r="T57" s="28" t="str">
         <f>IFERROR(VLOOKUP(D57,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>-100</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D58" s="78" t="s">
-        <v>245</v>
+        <v>788</v>
       </c>
       <c r="E58" s="74" t="s">
-        <v>191</v>
+        <v>789</v>
       </c>
       <c r="F58" s="74" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="G58" s="59"/>
       <c r="I58" s="20" t="str">
         <f>VLOOKUP(D58,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left lung</v>
+        <v>Brachial nerve plexus</v>
       </c>
       <c r="J58" s="21">
         <f>VLOOKUP(D58,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7310</v>
+        <v>5906</v>
       </c>
       <c r="K58" s="21" t="str">
         <f>VLOOKUP(D58,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39918,7 +40005,7 @@
       </c>
       <c r="O58" s="25" t="str">
         <f>VLOOKUP(D58,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lung L</v>
+        <v>z BronchialTree</v>
       </c>
       <c r="P58" s="26" t="str">
         <f>IFERROR(VLOOKUP(D58,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -39932,33 +40019,33 @@
         <f>IFERROR(VLOOKUP(D58,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S58" s="26">
+      <c r="S58" s="26" t="str">
         <f>IFERROR(VLOOKUP(D58,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>-700</v>
-      </c>
-      <c r="T58" s="28">
+        <v/>
+      </c>
+      <c r="T58" s="28" t="str">
         <f>IFERROR(VLOOKUP(D58,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>-100</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D59" s="78" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E59" s="74" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="F59" s="74" t="s">
-        <v>435</v>
+        <v>791</v>
       </c>
       <c r="G59" s="59"/>
       <c r="I59" s="20" t="str">
         <f>VLOOKUP(D59,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Pair of lungs</v>
+        <v>Right lung</v>
       </c>
       <c r="J59" s="21">
         <f>VLOOKUP(D59,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>68877</v>
+        <v>7309</v>
       </c>
       <c r="K59" s="21" t="str">
         <f>VLOOKUP(D59,[1]!Dictionary[#All],5,FALSE)</f>
@@ -39978,7 +40065,7 @@
       </c>
       <c r="O59" s="25" t="str">
         <f>VLOOKUP(D59,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Lung B</v>
+        <v>z Lung R</v>
       </c>
       <c r="P59" s="26" t="str">
         <f>IFERROR(VLOOKUP(D59,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40003,42 +40090,42 @@
     </row>
     <row r="60" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D60" s="78" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E60" s="74" t="s">
-        <v>810</v>
+        <v>191</v>
       </c>
       <c r="F60" s="74" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="G60" s="74"/>
       <c r="I60" s="20" t="str">
         <f>VLOOKUP(D60,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PRV</v>
-      </c>
-      <c r="J60" s="21" t="str">
+        <v>Left lung</v>
+      </c>
+      <c r="J60" s="21">
         <f>VLOOKUP(D60,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PRV</v>
+        <v>7310</v>
       </c>
       <c r="K60" s="21" t="str">
         <f>VLOOKUP(D60,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L60" s="22" t="str">
         <f>VLOOKUP(D60,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M60" s="23" t="str">
         <f>VLOOKUP(D60,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Organ</v>
       </c>
       <c r="N60" s="24" t="str">
         <f>VLOOKUP(D60,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Organ</v>
       </c>
       <c r="O60" s="25" t="str">
         <f>VLOOKUP(D60,[1]!Colors[#All],3,FALSE)</f>
-        <v>z BR STM PRV</v>
+        <v>z Lung L</v>
       </c>
       <c r="P60" s="26" t="str">
         <f>IFERROR(VLOOKUP(D60,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40052,53 +40139,53 @@
         <f>IFERROR(VLOOKUP(D60,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S60" s="26" t="str">
+      <c r="S60" s="26">
         <f>IFERROR(VLOOKUP(D60,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T60" s="28" t="str">
+        <v>-700</v>
+      </c>
+      <c r="T60" s="28">
         <f>IFERROR(VLOOKUP(D60,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>-100</v>
       </c>
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D61" s="78" t="s">
-        <v>812</v>
+        <v>278</v>
       </c>
       <c r="E61" s="74" t="s">
-        <v>813</v>
+        <v>278</v>
       </c>
       <c r="F61" s="74" t="s">
-        <v>814</v>
+        <v>435</v>
       </c>
       <c r="G61" s="59"/>
       <c r="I61" s="20" t="str">
         <f>VLOOKUP(D61,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PRV</v>
-      </c>
-      <c r="J61" s="21" t="str">
+        <v>Pair of lungs</v>
+      </c>
+      <c r="J61" s="21">
         <f>VLOOKUP(D61,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PRV</v>
+        <v>68877</v>
       </c>
       <c r="K61" s="21" t="str">
         <f>VLOOKUP(D61,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L61" s="22" t="str">
         <f>VLOOKUP(D61,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M61" s="23" t="str">
         <f>VLOOKUP(D61,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Organ</v>
       </c>
       <c r="N61" s="24" t="str">
         <f>VLOOKUP(D61,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Organ</v>
       </c>
       <c r="O61" s="25" t="str">
         <f>VLOOKUP(D61,[1]!Colors[#All],3,FALSE)</f>
-        <v>zBR STM + OP PRV</v>
+        <v>z Lung B</v>
       </c>
       <c r="P61" s="26" t="str">
         <f>IFERROR(VLOOKUP(D61,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40112,33 +40199,33 @@
         <f>IFERROR(VLOOKUP(D61,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S61" s="26" t="str">
+      <c r="S61" s="26">
         <f>IFERROR(VLOOKUP(D61,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T61" s="28" t="str">
+        <v>-700</v>
+      </c>
+      <c r="T61" s="28">
         <f>IFERROR(VLOOKUP(D61,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>-100</v>
       </c>
     </row>
     <row r="62" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D62" s="78" t="s">
-        <v>815</v>
+        <v>104</v>
       </c>
       <c r="E62" s="74" t="s">
-        <v>816</v>
+        <v>182</v>
       </c>
       <c r="F62" s="74" t="s">
-        <v>817</v>
-      </c>
-      <c r="G62" s="59"/>
+        <v>104</v>
+      </c>
+      <c r="G62" s="74"/>
       <c r="I62" s="20" t="str">
         <f>VLOOKUP(D62,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Set of neural tree organs</v>
+        <v>Skin</v>
       </c>
       <c r="J62" s="21">
         <f>VLOOKUP(D62,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>79879</v>
+        <v>7163</v>
       </c>
       <c r="K62" s="21" t="str">
         <f>VLOOKUP(D62,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40158,7 +40245,7 @@
       </c>
       <c r="O62" s="25" t="str">
         <f>VLOOKUP(D62,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Brain Stem opt</v>
+        <v>z Skin</v>
       </c>
       <c r="P62" s="26" t="str">
         <f>IFERROR(VLOOKUP(D62,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40183,42 +40270,42 @@
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D63" s="78" t="s">
-        <v>233</v>
+        <v>589</v>
       </c>
       <c r="E63" s="74" t="s">
-        <v>818</v>
+        <v>882</v>
       </c>
       <c r="F63" s="74" t="s">
-        <v>819</v>
-      </c>
-      <c r="G63" s="59"/>
+        <v>886</v>
+      </c>
+      <c r="G63" s="74"/>
       <c r="I63" s="20" t="str">
         <f>VLOOKUP(D63,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PRV</v>
-      </c>
-      <c r="J63" s="21" t="str">
+        <v>Constrictor muscle of pharynx</v>
+      </c>
+      <c r="J63" s="21">
         <f>VLOOKUP(D63,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PRV</v>
+        <v>46620</v>
       </c>
       <c r="K63" s="21" t="str">
         <f>VLOOKUP(D63,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L63" s="22" t="str">
         <f>VLOOKUP(D63,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M63" s="23" t="str">
         <f>VLOOKUP(D63,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Organ</v>
       </c>
       <c r="N63" s="24" t="str">
         <f>VLOOKUP(D63,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Organ</v>
       </c>
       <c r="O63" s="25" t="str">
         <f>VLOOKUP(D63,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSpinalCanal PRV</v>
+        <v>z Duodenum</v>
       </c>
       <c r="P63" s="26" t="str">
         <f>IFERROR(VLOOKUP(D63,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40242,23 +40329,23 @@
       </c>
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D64" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64" s="77" t="s">
-        <v>641</v>
-      </c>
-      <c r="F64" s="77" t="s">
-        <v>642</v>
-      </c>
-      <c r="G64" s="77"/>
+      <c r="D64" s="78" t="s">
+        <v>592</v>
+      </c>
+      <c r="E64" s="74" t="s">
+        <v>883</v>
+      </c>
+      <c r="F64" s="74" t="s">
+        <v>885</v>
+      </c>
+      <c r="G64" s="74"/>
       <c r="I64" s="20" t="str">
         <f>VLOOKUP(D64,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PRV</v>
+        <v>Body sub PTVs</v>
       </c>
       <c r="J64" s="21" t="str">
         <f>VLOOKUP(D64,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PRV</v>
+        <v>body-ptvs</v>
       </c>
       <c r="K64" s="21" t="str">
         <f>VLOOKUP(D64,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40278,7 +40365,7 @@
       </c>
       <c r="O64" s="25" t="str">
         <f>VLOOKUP(D64,[1]!Colors[#All],3,FALSE)</f>
-        <v>zSpinalCanal PRV</v>
+        <v>z Old Body</v>
       </c>
       <c r="P64" s="26" t="str">
         <f>IFERROR(VLOOKUP(D64,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40303,30 +40390,30 @@
     </row>
     <row r="65" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D65" s="78" t="s">
-        <v>605</v>
+        <v>267</v>
       </c>
       <c r="E65" s="74" t="s">
-        <v>606</v>
+        <v>793</v>
       </c>
       <c r="F65" s="74" t="s">
-        <v>607</v>
+        <v>794</v>
       </c>
       <c r="G65" s="74"/>
       <c r="I65" s="20" t="str">
         <f>VLOOKUP(D65,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Larynx</v>
-      </c>
-      <c r="J65" s="21">
+        <v>PRV</v>
+      </c>
+      <c r="J65" s="21" t="str">
         <f>VLOOKUP(D65,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55097</v>
+        <v>PRV</v>
       </c>
       <c r="K65" s="21" t="str">
         <f>VLOOKUP(D65,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="L65" s="22" t="str">
         <f>VLOOKUP(D65,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="M65" s="23" t="str">
         <f>VLOOKUP(D65,[1]!VolumeType[#All],2,FALSE)</f>
@@ -40338,19 +40425,19 @@
       </c>
       <c r="O65" s="25" t="str">
         <f>VLOOKUP(D65,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Larynx</v>
-      </c>
-      <c r="P65" s="26">
+        <v>z BR STM PRV</v>
+      </c>
+      <c r="P65" s="26" t="str">
         <f>IFERROR(VLOOKUP(D65,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q65" s="27">
+        <v/>
+      </c>
+      <c r="Q65" s="27" t="str">
         <f>IFERROR(VLOOKUP(D65,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="R65" s="28">
+        <v/>
+      </c>
+      <c r="R65" s="28" t="str">
         <f>IFERROR(VLOOKUP(D65,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S65" s="26" t="str">
         <f>IFERROR(VLOOKUP(D65,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -40363,22 +40450,22 @@
     </row>
     <row r="66" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D66" s="78" t="s">
-        <v>272</v>
+        <v>795</v>
       </c>
       <c r="E66" s="74" t="s">
-        <v>614</v>
+        <v>796</v>
       </c>
       <c r="F66" s="74" t="s">
-        <v>615</v>
-      </c>
-      <c r="G66" s="59"/>
+        <v>797</v>
+      </c>
+      <c r="G66" s="74"/>
       <c r="I66" s="20" t="str">
         <f>VLOOKUP(D66,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Parotids sub PTVs</v>
+        <v>PRV</v>
       </c>
       <c r="J66" s="21" t="str">
         <f>VLOOKUP(D66,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>parotids-ptvs</v>
+        <v>PRV</v>
       </c>
       <c r="K66" s="21" t="str">
         <f>VLOOKUP(D66,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40398,19 +40485,19 @@
       </c>
       <c r="O66" s="25" t="str">
         <f>VLOOKUP(D66,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid R</v>
-      </c>
-      <c r="P66" s="26">
+        <v>zBR STM + OP PRV</v>
+      </c>
+      <c r="P66" s="26" t="str">
         <f>IFERROR(VLOOKUP(D66,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q66" s="27">
+        <v/>
+      </c>
+      <c r="Q66" s="27" t="str">
         <f>IFERROR(VLOOKUP(D66,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="R66" s="28">
+        <v/>
+      </c>
+      <c r="R66" s="28" t="str">
         <f>IFERROR(VLOOKUP(D66,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S66" s="26" t="str">
         <f>IFERROR(VLOOKUP(D66,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -40423,54 +40510,54 @@
     </row>
     <row r="67" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D67" s="78" t="s">
-        <v>273</v>
+        <v>798</v>
       </c>
       <c r="E67" s="74" t="s">
-        <v>612</v>
+        <v>799</v>
       </c>
       <c r="F67" s="74" t="s">
-        <v>613</v>
-      </c>
-      <c r="G67" s="59"/>
+        <v>800</v>
+      </c>
+      <c r="G67" s="74"/>
       <c r="I67" s="20" t="str">
         <f>VLOOKUP(D67,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Parotids sub PTVs</v>
-      </c>
-      <c r="J67" s="21" t="str">
+        <v>Set of neural tree organs</v>
+      </c>
+      <c r="J67" s="21">
         <f>VLOOKUP(D67,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>parotids-ptvs</v>
+        <v>79879</v>
       </c>
       <c r="K67" s="21" t="str">
         <f>VLOOKUP(D67,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L67" s="22" t="str">
         <f>VLOOKUP(D67,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M67" s="23" t="str">
         <f>VLOOKUP(D67,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
+        <v>Organ</v>
       </c>
       <c r="N67" s="24" t="str">
         <f>VLOOKUP(D67,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Organ</v>
       </c>
       <c r="O67" s="25" t="str">
         <f>VLOOKUP(D67,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Parotid L</v>
-      </c>
-      <c r="P67" s="26">
+        <v>z Brain Stem opt</v>
+      </c>
+      <c r="P67" s="26" t="str">
         <f>IFERROR(VLOOKUP(D67,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q67" s="27">
+        <v/>
+      </c>
+      <c r="Q67" s="27" t="str">
         <f>IFERROR(VLOOKUP(D67,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="R67" s="28">
+        <v/>
+      </c>
+      <c r="R67" s="28" t="str">
         <f>IFERROR(VLOOKUP(D67,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S67" s="26" t="str">
         <f>IFERROR(VLOOKUP(D67,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -40483,22 +40570,22 @@
     </row>
     <row r="68" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D68" s="78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E68" s="74" t="s">
-        <v>601</v>
+        <v>801</v>
       </c>
       <c r="F68" s="74" t="s">
-        <v>602</v>
+        <v>802</v>
       </c>
       <c r="G68" s="59"/>
       <c r="I68" s="20" t="str">
         <f>VLOOKUP(D68,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Control Region</v>
+        <v>PRV</v>
       </c>
       <c r="J68" s="21" t="str">
         <f>VLOOKUP(D68,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Control</v>
+        <v>PRV</v>
       </c>
       <c r="K68" s="21" t="str">
         <f>VLOOKUP(D68,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40514,11 +40601,11 @@
       </c>
       <c r="N68" s="24" t="str">
         <f>VLOOKUP(D68,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Control</v>
+        <v>Avoidance</v>
       </c>
       <c r="O68" s="25" t="str">
         <f>VLOOKUP(D68,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Control</v>
+        <v>zSpinalCanal PRV</v>
       </c>
       <c r="P68" s="26" t="str">
         <f>IFERROR(VLOOKUP(D68,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40543,22 +40630,22 @@
     </row>
     <row r="69" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D69" s="78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E69" s="74" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="F69" s="74" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="G69" s="59"/>
       <c r="I69" s="20" t="str">
         <f>VLOOKUP(D69,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Control Region</v>
+        <v>PRV</v>
       </c>
       <c r="J69" s="21" t="str">
         <f>VLOOKUP(D69,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Control</v>
+        <v>PRV</v>
       </c>
       <c r="K69" s="21" t="str">
         <f>VLOOKUP(D69,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40574,11 +40661,11 @@
       </c>
       <c r="N69" s="24" t="str">
         <f>VLOOKUP(D69,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Control</v>
+        <v>Avoidance</v>
       </c>
       <c r="O69" s="25" t="str">
         <f>VLOOKUP(D69,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Control</v>
+        <v>zSpinalCanal PRV</v>
       </c>
       <c r="P69" s="26" t="str">
         <f>IFERROR(VLOOKUP(D69,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40603,42 +40690,42 @@
     </row>
     <row r="70" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D70" s="78" t="s">
-        <v>354</v>
+        <v>605</v>
       </c>
       <c r="E70" s="74" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="F70" s="74" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="G70" s="59"/>
       <c r="I70" s="20" t="str">
         <f>VLOOKUP(D70,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Primary</v>
-      </c>
-      <c r="J70" s="21" t="str">
+        <v>Larynx</v>
+      </c>
+      <c r="J70" s="21">
         <f>VLOOKUP(D70,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTVp</v>
+        <v>55097</v>
       </c>
       <c r="K70" s="21" t="str">
         <f>VLOOKUP(D70,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L70" s="22" t="str">
         <f>VLOOKUP(D70,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M70" s="23" t="str">
         <f>VLOOKUP(D70,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="N70" s="24" t="str">
         <f>VLOOKUP(D70,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Avoidance</v>
       </c>
       <c r="O70" s="25" t="str">
         <f>VLOOKUP(D70,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV opt</v>
+        <v>z Larynx</v>
       </c>
       <c r="P70" s="26">
         <f>IFERROR(VLOOKUP(D70,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40663,22 +40750,22 @@
     </row>
     <row r="71" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D71" s="78" t="s">
-        <v>633</v>
+        <v>272</v>
       </c>
       <c r="E71" s="74" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="F71" s="74" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="G71" s="59"/>
       <c r="I71" s="20" t="str">
         <f>VLOOKUP(D71,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>Parotids sub PTVs</v>
       </c>
       <c r="J71" s="21" t="str">
         <f>VLOOKUP(D71,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>parotids-ptvs</v>
       </c>
       <c r="K71" s="21" t="str">
         <f>VLOOKUP(D71,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40690,15 +40777,15 @@
       </c>
       <c r="M71" s="23" t="str">
         <f>VLOOKUP(D71,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="N71" s="24" t="str">
         <f>VLOOKUP(D71,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Avoidance</v>
       </c>
       <c r="O71" s="25" t="str">
         <f>VLOOKUP(D71,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int a</v>
+        <v>z Parotid R</v>
       </c>
       <c r="P71" s="26">
         <f>IFERROR(VLOOKUP(D71,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40723,22 +40810,22 @@
     </row>
     <row r="72" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D72" s="78" t="s">
-        <v>636</v>
+        <v>273</v>
       </c>
       <c r="E72" s="74" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="F72" s="74" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="G72" s="59"/>
       <c r="I72" s="20" t="str">
         <f>VLOOKUP(D72,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Intermediate Risk</v>
+        <v>Parotids sub PTVs</v>
       </c>
       <c r="J72" s="21" t="str">
         <f>VLOOKUP(D72,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Intermediate</v>
+        <v>parotids-ptvs</v>
       </c>
       <c r="K72" s="21" t="str">
         <f>VLOOKUP(D72,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40750,15 +40837,15 @@
       </c>
       <c r="M72" s="23" t="str">
         <f>VLOOKUP(D72,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="N72" s="24" t="str">
         <f>VLOOKUP(D72,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Avoidance</v>
       </c>
       <c r="O72" s="25" t="str">
         <f>VLOOKUP(D72,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV int b</v>
+        <v>z Parotid L</v>
       </c>
       <c r="P72" s="26">
         <f>IFERROR(VLOOKUP(D72,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -40783,22 +40870,22 @@
     </row>
     <row r="73" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D73" s="78" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="E73" s="74" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="F73" s="74" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="G73" s="59"/>
       <c r="I73" s="20" t="str">
         <f>VLOOKUP(D73,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>Control Region</v>
       </c>
       <c r="J73" s="21" t="str">
         <f>VLOOKUP(D73,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>Control</v>
       </c>
       <c r="K73" s="21" t="str">
         <f>VLOOKUP(D73,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40810,27 +40897,27 @@
       </c>
       <c r="M73" s="23" t="str">
         <f>VLOOKUP(D73,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="N73" s="24" t="str">
         <f>VLOOKUP(D73,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="O73" s="25" t="str">
         <f>VLOOKUP(D73,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low L a</v>
-      </c>
-      <c r="P73" s="26">
+        <v>z Control</v>
+      </c>
+      <c r="P73" s="26" t="str">
         <f>IFERROR(VLOOKUP(D73,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q73" s="27">
+        <v/>
+      </c>
+      <c r="Q73" s="27" t="str">
         <f>IFERROR(VLOOKUP(D73,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="R73" s="28">
+        <v/>
+      </c>
+      <c r="R73" s="28" t="str">
         <f>IFERROR(VLOOKUP(D73,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S73" s="26" t="str">
         <f>IFERROR(VLOOKUP(D73,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -40843,22 +40930,22 @@
     </row>
     <row r="74" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D74" s="78" t="s">
-        <v>620</v>
+        <v>230</v>
       </c>
       <c r="E74" s="74" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="F74" s="74" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="G74" s="59"/>
       <c r="I74" s="20" t="str">
         <f>VLOOKUP(D74,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
+        <v>Control Region</v>
       </c>
       <c r="J74" s="21" t="str">
         <f>VLOOKUP(D74,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
+        <v>Control</v>
       </c>
       <c r="K74" s="21" t="str">
         <f>VLOOKUP(D74,[1]!Dictionary[#All],5,FALSE)</f>
@@ -40870,27 +40957,27 @@
       </c>
       <c r="M74" s="23" t="str">
         <f>VLOOKUP(D74,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="N74" s="24" t="str">
         <f>VLOOKUP(D74,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>PTV</v>
+        <v>Control</v>
       </c>
       <c r="O74" s="25" t="str">
         <f>VLOOKUP(D74,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low L b</v>
-      </c>
-      <c r="P74" s="26">
+        <v>z Control</v>
+      </c>
+      <c r="P74" s="26" t="str">
         <f>IFERROR(VLOOKUP(D74,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q74" s="27">
+        <v/>
+      </c>
+      <c r="Q74" s="27" t="str">
         <f>IFERROR(VLOOKUP(D74,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>1</v>
-      </c>
-      <c r="R74" s="28">
+        <v/>
+      </c>
+      <c r="R74" s="28" t="str">
         <f>IFERROR(VLOOKUP(D74,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S74" s="26" t="str">
         <f>IFERROR(VLOOKUP(D74,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -40903,421 +40990,901 @@
     </row>
     <row r="75" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D75" s="78" t="s">
-        <v>623</v>
+        <v>354</v>
       </c>
       <c r="E75" s="74" t="s">
-        <v>624</v>
+        <v>863</v>
       </c>
       <c r="F75" s="74" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="G75" s="74"/>
-      <c r="I75" s="20" t="str">
+      <c r="I75" s="101" t="str">
         <f>VLOOKUP(D75,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
-      </c>
-      <c r="J75" s="21" t="str">
+        <v>PTV Primary</v>
+      </c>
+      <c r="J75" s="100" t="str">
         <f>VLOOKUP(D75,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
-      </c>
-      <c r="K75" s="21" t="str">
+        <v>PTVp</v>
+      </c>
+      <c r="K75" s="100" t="str">
         <f>VLOOKUP(D75,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="L75" s="22" t="str">
+      <c r="L75" s="99" t="str">
         <f>VLOOKUP(D75,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="M75" s="23" t="str">
+      <c r="M75" s="98" t="str">
         <f>VLOOKUP(D75,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N75" s="24" t="str">
+      <c r="N75" s="97" t="str">
         <f>VLOOKUP(D75,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O75" s="25" t="str">
+      <c r="O75" s="96" t="str">
         <f>VLOOKUP(D75,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low L c</v>
-      </c>
-      <c r="P75" s="26">
+        <v>z PTV opt</v>
+      </c>
+      <c r="P75" s="94">
         <f>IFERROR(VLOOKUP(D75,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="Q75" s="27">
+      <c r="Q75" s="95">
         <f>IFERROR(VLOOKUP(D75,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="R75" s="28">
+      <c r="R75" s="93">
         <f>IFERROR(VLOOKUP(D75,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="S75" s="26" t="str">
+      <c r="S75" s="94" t="str">
         <f>IFERROR(VLOOKUP(D75,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T75" s="28" t="str">
+      <c r="T75" s="93" t="str">
         <f>IFERROR(VLOOKUP(D75,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D76" s="78" t="s">
-        <v>315</v>
+        <v>633</v>
       </c>
       <c r="E76" s="74" t="s">
-        <v>626</v>
+        <v>864</v>
       </c>
       <c r="F76" s="74" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G76" s="59"/>
-      <c r="I76" s="20" t="str">
+      <c r="I76" s="101" t="str">
         <f>VLOOKUP(D76,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
-      </c>
-      <c r="J76" s="21" t="str">
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="J76" s="100" t="str">
         <f>VLOOKUP(D76,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
-      </c>
-      <c r="K76" s="21" t="str">
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="K76" s="100" t="str">
         <f>VLOOKUP(D76,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="L76" s="22" t="str">
+      <c r="L76" s="99" t="str">
         <f>VLOOKUP(D76,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="M76" s="23" t="str">
+      <c r="M76" s="98" t="str">
         <f>VLOOKUP(D76,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N76" s="24" t="str">
+      <c r="N76" s="97" t="str">
         <f>VLOOKUP(D76,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O76" s="25" t="str">
+      <c r="O76" s="96" t="str">
         <f>VLOOKUP(D76,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low R a</v>
-      </c>
-      <c r="P76" s="26">
+        <v>z PTV int a</v>
+      </c>
+      <c r="P76" s="94">
         <f>IFERROR(VLOOKUP(D76,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="Q76" s="27">
+      <c r="Q76" s="95">
         <f>IFERROR(VLOOKUP(D76,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="R76" s="28">
+      <c r="R76" s="93">
         <f>IFERROR(VLOOKUP(D76,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="S76" s="26" t="str">
+      <c r="S76" s="94" t="str">
         <f>IFERROR(VLOOKUP(D76,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T76" s="28" t="str">
+      <c r="T76" s="93" t="str">
         <f>IFERROR(VLOOKUP(D76,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D77" s="78" t="s">
-        <v>316</v>
+        <v>636</v>
       </c>
       <c r="E77" s="74" t="s">
-        <v>628</v>
+        <v>865</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="G77" s="59"/>
-      <c r="I77" s="20" t="str">
+      <c r="I77" s="101" t="str">
         <f>VLOOKUP(D77,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>PTV Low Risk</v>
-      </c>
-      <c r="J77" s="21" t="str">
+        <v>PTV Intermediate Risk</v>
+      </c>
+      <c r="J77" s="100" t="str">
         <f>VLOOKUP(D77,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>PTV_Low</v>
-      </c>
-      <c r="K77" s="21" t="str">
+        <v>PTV_Intermediate</v>
+      </c>
+      <c r="K77" s="100" t="str">
         <f>VLOOKUP(D77,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="L77" s="22" t="str">
+      <c r="L77" s="99" t="str">
         <f>VLOOKUP(D77,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="M77" s="23" t="str">
+      <c r="M77" s="98" t="str">
         <f>VLOOKUP(D77,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N77" s="24" t="str">
+      <c r="N77" s="97" t="str">
         <f>VLOOKUP(D77,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O77" s="25" t="str">
+      <c r="O77" s="96" t="str">
         <f>VLOOKUP(D77,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low R b</v>
-      </c>
-      <c r="P77" s="26">
+        <v>z PTV int b</v>
+      </c>
+      <c r="P77" s="94">
         <f>IFERROR(VLOOKUP(D77,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="Q77" s="27">
+      <c r="Q77" s="95">
         <f>IFERROR(VLOOKUP(D77,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="R77" s="28">
+      <c r="R77" s="93">
         <f>IFERROR(VLOOKUP(D77,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="S77" s="26" t="str">
+      <c r="S77" s="94" t="str">
         <f>IFERROR(VLOOKUP(D77,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T77" s="28" t="str">
+      <c r="T77" s="93" t="str">
         <f>IFERROR(VLOOKUP(D77,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D78" s="78" t="s">
-        <v>630</v>
+        <v>314</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>631</v>
+        <v>866</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G78" s="59"/>
-      <c r="I78" s="20" t="str">
+      <c r="I78" s="101" t="str">
         <f>VLOOKUP(D78,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Low Risk</v>
       </c>
-      <c r="J78" s="21" t="str">
+      <c r="J78" s="100" t="str">
         <f>VLOOKUP(D78,[1]!Dictionary[#All],4,FALSE)</f>
         <v>PTV_Low</v>
       </c>
-      <c r="K78" s="21" t="str">
+      <c r="K78" s="100" t="str">
         <f>VLOOKUP(D78,[1]!Dictionary[#All],5,FALSE)</f>
         <v>99VMS_STRUCTCODE</v>
       </c>
-      <c r="L78" s="22" t="str">
+      <c r="L78" s="99" t="str">
         <f>VLOOKUP(D78,[1]!Dictionary[#All],6,FALSE)</f>
         <v>1.0</v>
       </c>
-      <c r="M78" s="23" t="str">
+      <c r="M78" s="98" t="str">
         <f>VLOOKUP(D78,[1]!VolumeType[#All],2,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="N78" s="24" t="str">
+      <c r="N78" s="97" t="str">
         <f>VLOOKUP(D78,[1]!VolumeType[#All],3,FALSE)</f>
         <v>PTV</v>
       </c>
-      <c r="O78" s="25" t="str">
+      <c r="O78" s="96" t="str">
         <f>VLOOKUP(D78,[1]!Colors[#All],3,FALSE)</f>
-        <v>z PTV low R c</v>
-      </c>
-      <c r="P78" s="26">
+        <v>z PTV low L a</v>
+      </c>
+      <c r="P78" s="94">
         <f>IFERROR(VLOOKUP(D78,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v>-16777216</v>
       </c>
-      <c r="Q78" s="27">
+      <c r="Q78" s="95">
         <f>IFERROR(VLOOKUP(D78,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="R78" s="28">
+      <c r="R78" s="93">
         <f>IFERROR(VLOOKUP(D78,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="S78" s="26" t="str">
+      <c r="S78" s="94" t="str">
         <f>IFERROR(VLOOKUP(D78,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T78" s="28" t="str">
+      <c r="T78" s="93" t="str">
         <f>IFERROR(VLOOKUP(D78,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D79" s="79" t="s">
+      <c r="D79" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="E79" s="74" t="s">
+        <v>867</v>
+      </c>
+      <c r="F79" s="74" t="s">
+        <v>622</v>
+      </c>
+      <c r="G79" s="59"/>
+      <c r="I79" s="101" t="str">
+        <f>VLOOKUP(D79,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J79" s="100" t="str">
+        <f>VLOOKUP(D79,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K79" s="100" t="str">
+        <f>VLOOKUP(D79,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L79" s="99" t="str">
+        <f>VLOOKUP(D79,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M79" s="98" t="str">
+        <f>VLOOKUP(D79,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N79" s="97" t="str">
+        <f>VLOOKUP(D79,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O79" s="96" t="str">
+        <f>VLOOKUP(D79,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low L b</v>
+      </c>
+      <c r="P79" s="94">
+        <f>IFERROR(VLOOKUP(D79,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="Q79" s="95">
+        <f>IFERROR(VLOOKUP(D79,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="R79" s="93">
+        <f>IFERROR(VLOOKUP(D79,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="S79" s="94" t="str">
+        <f>IFERROR(VLOOKUP(D79,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T79" s="93" t="str">
+        <f>IFERROR(VLOOKUP(D79,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D80" s="78" t="s">
+        <v>623</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>868</v>
+      </c>
+      <c r="F80" s="74" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" s="59"/>
+      <c r="I80" s="101" t="str">
+        <f>VLOOKUP(D80,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J80" s="100" t="str">
+        <f>VLOOKUP(D80,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K80" s="100" t="str">
+        <f>VLOOKUP(D80,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L80" s="99" t="str">
+        <f>VLOOKUP(D80,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M80" s="98" t="str">
+        <f>VLOOKUP(D80,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N80" s="97" t="str">
+        <f>VLOOKUP(D80,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O80" s="96" t="str">
+        <f>VLOOKUP(D80,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low L c</v>
+      </c>
+      <c r="P80" s="94">
+        <f>IFERROR(VLOOKUP(D80,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="Q80" s="95">
+        <f>IFERROR(VLOOKUP(D80,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="R80" s="93">
+        <f>IFERROR(VLOOKUP(D80,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="S80" s="94" t="str">
+        <f>IFERROR(VLOOKUP(D80,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T80" s="93" t="str">
+        <f>IFERROR(VLOOKUP(D80,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D81" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E81" s="80" t="s">
+        <v>869</v>
+      </c>
+      <c r="F81" s="80" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" s="81"/>
+      <c r="I81" s="101" t="str">
+        <f>VLOOKUP(D81,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J81" s="100" t="str">
+        <f>VLOOKUP(D81,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K81" s="100" t="str">
+        <f>VLOOKUP(D81,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L81" s="99" t="str">
+        <f>VLOOKUP(D81,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M81" s="98" t="str">
+        <f>VLOOKUP(D81,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N81" s="97" t="str">
+        <f>VLOOKUP(D81,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O81" s="96" t="str">
+        <f>VLOOKUP(D81,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low R a</v>
+      </c>
+      <c r="P81" s="94">
+        <f>IFERROR(VLOOKUP(D81,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="Q81" s="95">
+        <f>IFERROR(VLOOKUP(D81,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="R81" s="93">
+        <f>IFERROR(VLOOKUP(D81,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="S81" s="94" t="str">
+        <f>IFERROR(VLOOKUP(D81,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T81" s="93" t="str">
+        <f>IFERROR(VLOOKUP(D81,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D82" s="79" t="s">
+        <v>316</v>
+      </c>
+      <c r="E82" s="80" t="s">
+        <v>870</v>
+      </c>
+      <c r="F82" s="80" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" s="81"/>
+      <c r="I82" s="101" t="str">
+        <f>VLOOKUP(D82,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J82" s="100" t="str">
+        <f>VLOOKUP(D82,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K82" s="100" t="str">
+        <f>VLOOKUP(D82,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L82" s="99" t="str">
+        <f>VLOOKUP(D82,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M82" s="98" t="str">
+        <f>VLOOKUP(D82,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N82" s="97" t="str">
+        <f>VLOOKUP(D82,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O82" s="96" t="str">
+        <f>VLOOKUP(D82,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low R b</v>
+      </c>
+      <c r="P82" s="94">
+        <f>IFERROR(VLOOKUP(D82,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="Q82" s="95">
+        <f>IFERROR(VLOOKUP(D82,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="R82" s="93">
+        <f>IFERROR(VLOOKUP(D82,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="S82" s="94" t="str">
+        <f>IFERROR(VLOOKUP(D82,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T82" s="93" t="str">
+        <f>IFERROR(VLOOKUP(D82,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D83" s="79" t="s">
+        <v>630</v>
+      </c>
+      <c r="E83" s="80" t="s">
+        <v>871</v>
+      </c>
+      <c r="F83" s="80" t="s">
+        <v>632</v>
+      </c>
+      <c r="G83" s="81"/>
+      <c r="I83" s="20" t="str">
+        <f>VLOOKUP(D83,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J83" s="21" t="str">
+        <f>VLOOKUP(D83,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K83" s="21" t="str">
+        <f>VLOOKUP(D83,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L83" s="22" t="str">
+        <f>VLOOKUP(D83,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M83" s="23" t="str">
+        <f>VLOOKUP(D83,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N83" s="24" t="str">
+        <f>VLOOKUP(D83,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O83" s="25" t="str">
+        <f>VLOOKUP(D83,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low R c</v>
+      </c>
+      <c r="P83" s="26">
+        <f>IFERROR(VLOOKUP(D83,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v>-16777216</v>
+      </c>
+      <c r="Q83" s="27">
+        <f>IFERROR(VLOOKUP(D83,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="R83" s="28">
+        <f>IFERROR(VLOOKUP(D83,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="S83" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D83,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T83" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D83,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D84" s="107" t="s">
+        <v>872</v>
+      </c>
+      <c r="E84" s="108" t="s">
+        <v>873</v>
+      </c>
+      <c r="F84" s="108" t="s">
+        <v>874</v>
+      </c>
+      <c r="G84" s="109"/>
+      <c r="I84" s="20" t="str">
+        <f>VLOOKUP(D84,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J84" s="21" t="str">
+        <f>VLOOKUP(D84,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K84" s="21" t="str">
+        <f>VLOOKUP(D84,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L84" s="22" t="str">
+        <f>VLOOKUP(D84,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M84" s="23" t="str">
+        <f>VLOOKUP(D84,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N84" s="24" t="str">
+        <f>VLOOKUP(D84,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O84" s="25" t="str">
+        <f>VLOOKUP(D84,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low R</v>
+      </c>
+      <c r="P84" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D84,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q84" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D84,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R84" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D84,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S84" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D84,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T84" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D84,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D85" s="107" t="s">
+        <v>875</v>
+      </c>
+      <c r="E85" s="108" t="s">
+        <v>876</v>
+      </c>
+      <c r="F85" s="108" t="s">
+        <v>877</v>
+      </c>
+      <c r="G85" s="109"/>
+      <c r="I85" s="101" t="str">
+        <f>VLOOKUP(D85,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J85" s="21" t="str">
+        <f>VLOOKUP(D85,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K85" s="21" t="str">
+        <f>VLOOKUP(D85,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L85" s="22" t="str">
+        <f>VLOOKUP(D85,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M85" s="23" t="str">
+        <f>VLOOKUP(D85,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N85" s="24" t="str">
+        <f>VLOOKUP(D85,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O85" s="25" t="str">
+        <f>VLOOKUP(D85,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low L</v>
+      </c>
+      <c r="P85" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D85,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q85" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D85,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R85" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D85,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S85" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D85,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T85" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D85,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D86" s="107" t="s">
+        <v>887</v>
+      </c>
+      <c r="E86" s="108" t="s">
+        <v>888</v>
+      </c>
+      <c r="F86" s="108" t="s">
+        <v>884</v>
+      </c>
+      <c r="G86" s="109"/>
+      <c r="I86" s="101" t="str">
+        <f>VLOOKUP(D86,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>PTV Low Risk</v>
+      </c>
+      <c r="J86" s="21" t="str">
+        <f>VLOOKUP(D86,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>PTV_Low</v>
+      </c>
+      <c r="K86" s="21" t="str">
+        <f>VLOOKUP(D86,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L86" s="22" t="str">
+        <f>VLOOKUP(D86,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>1.0</v>
+      </c>
+      <c r="M86" s="23" t="str">
+        <f>VLOOKUP(D86,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="N86" s="24" t="str">
+        <f>VLOOKUP(D86,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>PTV</v>
+      </c>
+      <c r="O86" s="25" t="str">
+        <f>VLOOKUP(D86,[1]!Colors[#All],3,FALSE)</f>
+        <v>z PTV low</v>
+      </c>
+      <c r="P86" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D86,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q86" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D86,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R86" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D86,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S86" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D86,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T86" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D86,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D87" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="E79" s="80" t="s">
+      <c r="E87" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="F79" s="80" t="s">
+      <c r="F87" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="81"/>
-      <c r="I79" s="20" t="str">
-        <f>VLOOKUP(D79,[1]!Dictionary[#All],3,FALSE)</f>
+      <c r="G87" s="109"/>
+      <c r="I87" s="20" t="str">
+        <f>VLOOKUP(D87,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="J79" s="21">
-        <f>VLOOKUP(D79,[1]!Dictionary[#All],4,FALSE)</f>
+      <c r="J87" s="21">
+        <f>VLOOKUP(D87,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="K79" s="21" t="str">
-        <f>VLOOKUP(D79,[1]!Dictionary[#All],5,FALSE)</f>
+      <c r="K87" s="21" t="str">
+        <f>VLOOKUP(D87,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="L79" s="22">
-        <f>VLOOKUP(D79,[1]!Dictionary[#All],6,FALSE)</f>
+      <c r="L87" s="22">
+        <f>VLOOKUP(D87,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="M79" s="23" t="str">
-        <f>VLOOKUP(D79,[1]!VolumeType[#All],2,FALSE)</f>
+      <c r="M87" s="23" t="str">
+        <f>VLOOKUP(D87,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="N79" s="24" t="str">
-        <f>VLOOKUP(D79,[1]!VolumeType[#All],3,FALSE)</f>
+      <c r="N87" s="24" t="str">
+        <f>VLOOKUP(D87,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="O79" s="25" t="str">
-        <f>VLOOKUP(D79,[1]!Colors[#All],3,FALSE)</f>
+      <c r="O87" s="25" t="str">
+        <f>VLOOKUP(D87,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="P79" s="26" t="str">
-        <f>IFERROR(VLOOKUP(D79,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q79" s="27" t="str">
-        <f>IFERROR(VLOOKUP(D79,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R79" s="28" t="str">
-        <f>IFERROR(VLOOKUP(D79,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S79" s="26" t="str">
-        <f>IFERROR(VLOOKUP(D79,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T79" s="28" t="str">
-        <f>IFERROR(VLOOKUP(D79,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D80" s="79" t="s">
+      <c r="P87" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D87,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q87" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D87,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R87" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D87,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S87" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D87,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T87" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D87,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D88" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="E80" s="80" t="s">
+      <c r="E88" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="F80" s="80" t="s">
+      <c r="F88" s="108" t="s">
         <v>236</v>
       </c>
-      <c r="G80" s="81"/>
-      <c r="I80" s="20" t="str">
-        <f>VLOOKUP(D80,[1]!Dictionary[#All],3,FALSE)</f>
+      <c r="G88" s="109"/>
+      <c r="I88" s="20" t="str">
+        <f>VLOOKUP(D88,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="J80" s="21">
-        <f>VLOOKUP(D80,[1]!Dictionary[#All],4,FALSE)</f>
+      <c r="J88" s="21">
+        <f>VLOOKUP(D88,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="K80" s="21" t="str">
-        <f>VLOOKUP(D80,[1]!Dictionary[#All],5,FALSE)</f>
+      <c r="K88" s="21" t="str">
+        <f>VLOOKUP(D88,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="L80" s="22">
-        <f>VLOOKUP(D80,[1]!Dictionary[#All],6,FALSE)</f>
+      <c r="L88" s="22">
+        <f>VLOOKUP(D88,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="M80" s="23" t="str">
-        <f>VLOOKUP(D80,[1]!VolumeType[#All],2,FALSE)</f>
+      <c r="M88" s="23" t="str">
+        <f>VLOOKUP(D88,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="N80" s="24" t="str">
-        <f>VLOOKUP(D80,[1]!VolumeType[#All],3,FALSE)</f>
+      <c r="N88" s="24" t="str">
+        <f>VLOOKUP(D88,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="O80" s="25" t="str">
-        <f>VLOOKUP(D80,[1]!Colors[#All],3,FALSE)</f>
+      <c r="O88" s="25" t="str">
+        <f>VLOOKUP(D88,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="P80" s="26" t="str">
-        <f>IFERROR(VLOOKUP(D80,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q80" s="27" t="str">
-        <f>IFERROR(VLOOKUP(D80,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R80" s="28" t="str">
-        <f>IFERROR(VLOOKUP(D80,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S80" s="26" t="str">
-        <f>IFERROR(VLOOKUP(D80,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T80" s="28" t="str">
-        <f>IFERROR(VLOOKUP(D80,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="79" t="s">
+      <c r="P88" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D88,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q88" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D88,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R88" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D88,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S88" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D88,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T88" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D88,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="80" t="s">
+      <c r="E89" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="F81" s="80" t="s">
+      <c r="F89" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="G81" s="81"/>
-      <c r="I81" s="39" t="str">
-        <f>VLOOKUP(D81,[1]!Dictionary[#All],3,FALSE)</f>
+      <c r="G89" s="59"/>
+      <c r="I89" s="39" t="str">
+        <f>VLOOKUP(D89,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="J81" s="40">
-        <f>VLOOKUP(D81,[1]!Dictionary[#All],4,FALSE)</f>
+      <c r="J89" s="40">
+        <f>VLOOKUP(D89,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="K81" s="40" t="str">
-        <f>VLOOKUP(D81,[1]!Dictionary[#All],5,FALSE)</f>
+      <c r="K89" s="40" t="str">
+        <f>VLOOKUP(D89,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="L81" s="41">
-        <f>VLOOKUP(D81,[1]!Dictionary[#All],6,FALSE)</f>
+      <c r="L89" s="41">
+        <f>VLOOKUP(D89,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="M81" s="42" t="str">
-        <f>VLOOKUP(D81,[1]!VolumeType[#All],2,FALSE)</f>
+      <c r="M89" s="42" t="str">
+        <f>VLOOKUP(D89,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="N81" s="43" t="str">
-        <f>VLOOKUP(D81,[1]!VolumeType[#All],3,FALSE)</f>
+      <c r="N89" s="43" t="str">
+        <f>VLOOKUP(D89,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="O81" s="44" t="str">
-        <f>VLOOKUP(D81,[1]!Colors[#All],3,FALSE)</f>
+      <c r="O89" s="44" t="str">
+        <f>VLOOKUP(D89,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="P81" s="45" t="str">
-        <f>IFERROR(VLOOKUP(D81,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q81" s="46" t="str">
-        <f>IFERROR(VLOOKUP(D81,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R81" s="47" t="str">
-        <f>IFERROR(VLOOKUP(D81,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S81" s="45" t="str">
-        <f>IFERROR(VLOOKUP(D81,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T81" s="47" t="str">
-        <f>IFERROR(VLOOKUP(D81,[1]!SearchCT[#Data],3,FALSE),"")</f>
+      <c r="P89" s="45" t="str">
+        <f>IFERROR(VLOOKUP(D89,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q89" s="46" t="str">
+        <f>IFERROR(VLOOKUP(D89,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R89" s="47" t="str">
+        <f>IFERROR(VLOOKUP(D89,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S89" s="45" t="str">
+        <f>IFERROR(VLOOKUP(D89,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T89" s="47" t="str">
+        <f>IFERROR(VLOOKUP(D89,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Clinical Trial Structure Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Clinical Trial Structure Templates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="345" windowWidth="9630" windowHeight="11280" tabRatio="532" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="6885" yWindow="345" windowWidth="9630" windowHeight="11280" tabRatio="532" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CC003_PCI Brain" sheetId="2" r:id="rId1"/>
@@ -3793,6 +3793,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3807,15 +3816,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6784,6 +6784,7 @@
       <sheetName val="ICD-10 Codes"/>
       <sheetName val="Color Chart"/>
       <sheetName val="Original Structure colors"/>
+      <sheetName val="ColourTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -6797,6 +6798,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7407,40 +7409,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -9274,39 +9276,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="I1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="I1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="102" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="105"/>
+      <c r="N1" s="108"/>
       <c r="O1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="102" t="s">
+      <c r="Q1" s="108"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="103"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -14198,37 +14200,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>846</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="105"/>
+      <c r="N1" s="108"/>
       <c r="O1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="102" t="s">
+      <c r="Q1" s="108"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="103"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -16863,11 +16865,11 @@
       </c>
       <c r="I43" s="20" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Kidney</v>
-      </c>
-      <c r="J43" s="21">
+        <v>Set of kidneys</v>
+      </c>
+      <c r="J43" s="21" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7203</v>
+        <v>264815</v>
       </c>
       <c r="K43" s="21" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],5,FALSE)</f>
@@ -17734,40 +17736,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -19783,40 +19785,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -21588,40 +21590,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -24896,7 +24898,7 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
@@ -24927,40 +24929,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -25043,11 +25045,11 @@
       <c r="H3" s="32"/>
       <c r="J3" s="20" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Kidney</v>
-      </c>
-      <c r="K3" s="21">
+        <v>Set of kidneys</v>
+      </c>
+      <c r="K3" s="21" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7203</v>
+        <v>264815</v>
       </c>
       <c r="L3" s="21" t="str">
         <f>VLOOKUP(D3,[1]!Dictionary[#All],5,FALSE)</f>
@@ -26548,40 +26550,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -29449,40 +29451,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="106"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -32148,40 +32150,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="J1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="J1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="102" t="s">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="105"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="105"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="102" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="103"/>
+      <c r="U1" s="106"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -36481,7 +36483,7 @@
   </sheetPr>
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -36511,39 +36513,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>703</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="I1" s="102" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="I1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="102" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="105"/>
+      <c r="N1" s="108"/>
       <c r="O1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="102" t="s">
+      <c r="Q1" s="108"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="103"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -41529,16 +41531,16 @@
       </c>
     </row>
     <row r="84" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D84" s="107" t="s">
+      <c r="D84" s="102" t="s">
         <v>872</v>
       </c>
-      <c r="E84" s="108" t="s">
+      <c r="E84" s="103" t="s">
         <v>873</v>
       </c>
-      <c r="F84" s="108" t="s">
+      <c r="F84" s="103" t="s">
         <v>874</v>
       </c>
-      <c r="G84" s="109"/>
+      <c r="G84" s="104"/>
       <c r="I84" s="20" t="str">
         <f>VLOOKUP(D84,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Low Risk</v>
@@ -41589,16 +41591,16 @@
       </c>
     </row>
     <row r="85" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D85" s="107" t="s">
+      <c r="D85" s="102" t="s">
         <v>875</v>
       </c>
-      <c r="E85" s="108" t="s">
+      <c r="E85" s="103" t="s">
         <v>876</v>
       </c>
-      <c r="F85" s="108" t="s">
+      <c r="F85" s="103" t="s">
         <v>877</v>
       </c>
-      <c r="G85" s="109"/>
+      <c r="G85" s="104"/>
       <c r="I85" s="101" t="str">
         <f>VLOOKUP(D85,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Low Risk</v>
@@ -41649,16 +41651,16 @@
       </c>
     </row>
     <row r="86" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D86" s="107" t="s">
+      <c r="D86" s="102" t="s">
         <v>887</v>
       </c>
-      <c r="E86" s="108" t="s">
+      <c r="E86" s="103" t="s">
         <v>888</v>
       </c>
-      <c r="F86" s="108" t="s">
+      <c r="F86" s="103" t="s">
         <v>884</v>
       </c>
-      <c r="G86" s="109"/>
+      <c r="G86" s="104"/>
       <c r="I86" s="101" t="str">
         <f>VLOOKUP(D86,[1]!Dictionary[#All],3,FALSE)</f>
         <v>PTV Low Risk</v>
@@ -41709,16 +41711,16 @@
       </c>
     </row>
     <row r="87" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D87" s="107" t="s">
+      <c r="D87" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="E87" s="108" t="s">
+      <c r="E87" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="F87" s="108" t="s">
+      <c r="F87" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="109"/>
+      <c r="G87" s="104"/>
       <c r="I87" s="20" t="str">
         <f>VLOOKUP(D87,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
@@ -41769,16 +41771,16 @@
       </c>
     </row>
     <row r="88" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D88" s="107" t="s">
+      <c r="D88" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="E88" s="108" t="s">
+      <c r="E88" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="F88" s="108" t="s">
+      <c r="F88" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="G88" s="109"/>
+      <c r="G88" s="104"/>
       <c r="I88" s="20" t="str">
         <f>VLOOKUP(D88,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>

--- a/External Beam Templates/Structure Templates/Template Spreadsheets/Clinical Trial Structure Templates.xlsx
+++ b/External Beam Templates/Structure Templates/Template Spreadsheets/Clinical Trial Structure Templates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dkphysicspv1\e$\Gregs_Work\Eclipse\Template Management\External Beam Templates\Structure Templates\Template Spreadsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="345" windowWidth="9630" windowHeight="11280" tabRatio="532" activeTab="4"/>
+    <workbookView xWindow="6885" yWindow="345" windowWidth="9630" windowHeight="11280" tabRatio="532" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CC003_PCI Brain" sheetId="2" r:id="rId1"/>
@@ -22,12 +27,12 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="896">
   <si>
     <t>VolumeType</t>
   </si>
@@ -2444,9 +2449,6 @@
     <t>PTV defined by Radiation Oncologist</t>
   </si>
   <si>
-    <t>Prox Bronch Zone</t>
-  </si>
-  <si>
     <t>PTV+20</t>
   </si>
   <si>
@@ -2531,9 +2533,6 @@
     <t>Whole Lung</t>
   </si>
   <si>
-    <t>Proximal Bronchial Tree Plus 2 cm</t>
-  </si>
-  <si>
     <t>Aorta and PulmonaryArtery</t>
   </si>
   <si>
@@ -2567,9 +2566,6 @@
     <t>z Great Vessels</t>
   </si>
   <si>
-    <t>MK_3475 Lung SABR</t>
-  </si>
-  <si>
     <t xml:space="preserve">MK-3475  Clinical Trial Lung SABR </t>
   </si>
   <si>
@@ -2694,6 +2690,36 @@
   </si>
   <si>
     <t>opt PTV_5600 c</t>
+  </si>
+  <si>
+    <t>Dose50[%]</t>
+  </si>
+  <si>
+    <t>50% Dose volume</t>
+  </si>
+  <si>
+    <t>V_Rx</t>
+  </si>
+  <si>
+    <t>Prescribed Dose volume</t>
+  </si>
+  <si>
+    <t>Bronchial_Prox</t>
+  </si>
+  <si>
+    <t>Proximal Bronchial Trachea Tree Plus 2 cm</t>
+  </si>
+  <si>
+    <t>ProxBronTrach</t>
+  </si>
+  <si>
+    <t>Proximal Bronchial Tree and Trachea</t>
+  </si>
+  <si>
+    <t>ProxBronTrach+20</t>
+  </si>
+  <si>
+    <t>MK_3475</t>
   </si>
 </sst>
 </file>
@@ -6765,6 +6791,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6987,7 +7016,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table5333523" displayName="Table5333523" ref="D2:G55" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table5333523" displayName="Table5333523" ref="D2:G58" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="Structure" dataDxfId="3"/>
     <tableColumn id="2" name="ID" dataDxfId="2"/>
@@ -7129,7 +7158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7164,7 +7193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14168,10 +14197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14201,7 +14230,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="107" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="1"/>
@@ -14294,7 +14323,7 @@
         <v>399</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>846</v>
+        <v>895</v>
       </c>
       <c r="C3" s="6">
         <f>LEN(Table5333523[[#This Row],[ID]])</f>
@@ -14435,7 +14464,7 @@
         <v>226</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="16" t="s">
@@ -14448,7 +14477,7 @@
         <v>407</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I5" s="20" t="str">
         <f>VLOOKUP(D5,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14517,7 +14546,7 @@
         <v>409</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I6" s="20" t="str">
         <f>VLOOKUP(D6,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14583,7 +14612,7 @@
         <v>411</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I7" s="20" t="str">
         <f>VLOOKUP(D7,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14651,7 +14680,7 @@
         <v>413</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I8" s="20" t="str">
         <f>VLOOKUP(D8,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14719,7 +14748,7 @@
         <v>415</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I9" s="20" t="str">
         <f>VLOOKUP(D9,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14787,7 +14816,7 @@
         <v>417</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I10" s="20" t="str">
         <f>VLOOKUP(D10,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14843,7 +14872,7 @@
         <v>515</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>284</v>
@@ -14855,7 +14884,7 @@
         <v>419</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I11" s="20" t="str">
         <f>VLOOKUP(D11,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14923,7 +14952,7 @@
         <v>421</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I12" s="20" t="str">
         <f>VLOOKUP(D12,[1]!Dictionary[#All],3,FALSE)</f>
@@ -14991,7 +15020,7 @@
         <v>423</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I13" s="20" t="str">
         <f>VLOOKUP(D13,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15055,7 +15084,7 @@
         <v>425</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I14" s="20" t="str">
         <f>VLOOKUP(D14,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15117,7 +15146,7 @@
         <v>427</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I15" s="20" t="str">
         <f>VLOOKUP(D15,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15179,7 +15208,7 @@
         <v>428</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I16" s="20" t="str">
         <f>VLOOKUP(D16,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15230,7 +15259,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D17" s="16" t="s">
         <v>280</v>
       </c>
@@ -15241,7 +15270,7 @@
         <v>429</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I17" s="20" t="str">
         <f>VLOOKUP(D17,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15292,7 +15321,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" s="29" t="s">
         <v>319</v>
       </c>
@@ -15303,7 +15332,7 @@
         <v>320</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I18" s="20" t="str">
         <f>VLOOKUP(D18,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15354,7 +15383,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="92"/>
       <c r="D19" s="89" t="s">
         <v>20</v>
       </c>
@@ -15416,7 +15446,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="92"/>
       <c r="D20" s="16" t="s">
         <v>187</v>
       </c>
@@ -15427,7 +15458,7 @@
         <v>803</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I20" s="20" t="str">
         <f>VLOOKUP(D20,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15478,7 +15509,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
       <c r="D21" s="29" t="s">
         <v>25</v>
       </c>
@@ -15540,7 +15572,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="92"/>
       <c r="C22" s="87"/>
       <c r="D22" s="16" t="s">
         <v>430</v>
@@ -15603,7 +15636,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="92"/>
       <c r="C23" s="87"/>
       <c r="D23" s="29" t="s">
         <v>245</v>
@@ -15615,7 +15649,7 @@
         <v>433</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I23" s="20" t="str">
         <f>VLOOKUP(D23,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15666,7 +15700,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="92"/>
       <c r="D24" s="16" t="s">
         <v>246</v>
       </c>
@@ -15677,7 +15712,7 @@
         <v>434</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I24" s="20" t="str">
         <f>VLOOKUP(D24,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15728,7 +15763,8 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="92"/>
       <c r="D25" s="29" t="s">
         <v>278</v>
       </c>
@@ -15736,10 +15772,10 @@
         <v>278</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I25" s="20" t="str">
         <f>VLOOKUP(D25,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15790,15 +15826,16 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="92"/>
       <c r="D26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>32</v>
+        <v>830</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>661</v>
@@ -15852,7 +15889,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="92"/>
       <c r="D27" s="29" t="s">
         <v>233</v>
       </c>
@@ -15914,18 +15952,19 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="92"/>
       <c r="D28" s="29" t="s">
         <v>277</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I28" s="20" t="str">
         <f>VLOOKUP(D28,[1]!Dictionary[#All],3,FALSE)</f>
@@ -15976,18 +16015,19 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="92"/>
       <c r="D29" s="16" t="s">
         <v>289</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>289</v>
+        <v>890</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>436</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I29" s="20" t="str">
         <f>VLOOKUP(D29,[1]!Dictionary[#All],3,FALSE)</f>
@@ -16038,27 +16078,28 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="92"/>
       <c r="C30" s="86"/>
-      <c r="D30" s="29" t="s">
-        <v>64</v>
+      <c r="D30" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>64</v>
+        <v>892</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>64</v>
+        <v>893</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I30" s="20" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Heart</v>
+        <v>Bronchial tree</v>
       </c>
       <c r="J30" s="21">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7088</v>
+        <v>26660</v>
       </c>
       <c r="K30" s="21" t="str">
         <f>VLOOKUP(D30,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16078,7 +16119,7 @@
       </c>
       <c r="O30" s="25" t="str">
         <f>VLOOKUP(D30,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Heart</v>
+        <v>z BronchialTree</v>
       </c>
       <c r="P30" s="26" t="str">
         <f>IFERROR(VLOOKUP(D30,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16101,35 +16142,36 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="92"/>
       <c r="C31" s="87"/>
-      <c r="D31" s="16" t="s">
-        <v>290</v>
+      <c r="D31" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>290</v>
+        <v>64</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>835</v>
+        <v>64</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="I31" s="20" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Great Vessels</v>
-      </c>
-      <c r="J31" s="21" t="str">
+        <v>Heart</v>
+      </c>
+      <c r="J31" s="21">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>GreatVessels</v>
+        <v>7088</v>
       </c>
       <c r="K31" s="21" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
+        <v>FMA</v>
       </c>
       <c r="L31" s="22" t="str">
         <f>VLOOKUP(D31,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
+        <v>3.2</v>
       </c>
       <c r="M31" s="23" t="str">
         <f>VLOOKUP(D31,[1]!VolumeType[#All],2,FALSE)</f>
@@ -16141,7 +16183,7 @@
       </c>
       <c r="O31" s="25" t="str">
         <f>VLOOKUP(D31,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Great Vessels</v>
+        <v>z Heart</v>
       </c>
       <c r="P31" s="26" t="str">
         <f>IFERROR(VLOOKUP(D31,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16164,35 +16206,36 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="92"/>
       <c r="C32" s="87"/>
       <c r="D32" s="16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>439</v>
+        <v>833</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="I32" s="20" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left brachial nerve plexus</v>
-      </c>
-      <c r="J32" s="21">
+        <v>Great Vessels</v>
+      </c>
+      <c r="J32" s="21" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>45245</v>
+        <v>GreatVessels</v>
       </c>
       <c r="K32" s="21" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>FMA</v>
+        <v>99VMS_STRUCTCODE</v>
       </c>
       <c r="L32" s="22" t="str">
         <f>VLOOKUP(D32,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.2</v>
+        <v>1.0</v>
       </c>
       <c r="M32" s="23" t="str">
         <f>VLOOKUP(D32,[1]!VolumeType[#All],2,FALSE)</f>
@@ -16204,7 +16247,7 @@
       </c>
       <c r="O32" s="25" t="str">
         <f>VLOOKUP(D32,[1]!Colors[#All],3,FALSE)</f>
-        <v>zBrachialPlexusL</v>
+        <v>z Great Vessels</v>
       </c>
       <c r="P32" s="26" t="str">
         <f>IFERROR(VLOOKUP(D32,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16228,25 +16271,26 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D33" s="29" t="s">
-        <v>288</v>
+      <c r="B33" s="92"/>
+      <c r="D33" s="16" t="s">
+        <v>287</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I33" s="20" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right brachial nerve plexus</v>
+        <v>Left brachial nerve plexus</v>
       </c>
       <c r="J33" s="21">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="K33" s="21" t="str">
         <f>VLOOKUP(D33,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16266,7 +16310,7 @@
       </c>
       <c r="O33" s="25" t="str">
         <f>VLOOKUP(D33,[1]!Colors[#All],3,FALSE)</f>
-        <v>zBrachialPlexusR</v>
+        <v>zBrachialPlexusL</v>
       </c>
       <c r="P33" s="26" t="str">
         <f>IFERROR(VLOOKUP(D33,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16290,25 +16334,26 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D34" s="16" t="s">
-        <v>441</v>
+      <c r="B34" s="92"/>
+      <c r="D34" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I34" s="20" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Intercostal muscle</v>
+        <v>Right brachial nerve plexus</v>
       </c>
       <c r="J34" s="21">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>13354</v>
+        <v>45244</v>
       </c>
       <c r="K34" s="21" t="str">
         <f>VLOOKUP(D34,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16328,7 +16373,7 @@
       </c>
       <c r="O34" s="25" t="str">
         <f>VLOOKUP(D34,[1]!Colors[#All],3,FALSE)</f>
-        <v>zIntercostmuscle</v>
+        <v>zBrachialPlexusR</v>
       </c>
       <c r="P34" s="26" t="str">
         <f>IFERROR(VLOOKUP(D34,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16352,25 +16397,26 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D35" s="29" t="s">
-        <v>104</v>
+      <c r="B35" s="92"/>
+      <c r="D35" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>104</v>
+        <v>443</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I35" s="20" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Skin</v>
+        <v>Intercostal muscle</v>
       </c>
       <c r="J35" s="21">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7163</v>
+        <v>13354</v>
       </c>
       <c r="K35" s="21" t="str">
         <f>VLOOKUP(D35,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16390,7 +16436,7 @@
       </c>
       <c r="O35" s="25" t="str">
         <f>VLOOKUP(D35,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Skin</v>
+        <v>zIntercostmuscle</v>
       </c>
       <c r="P35" s="26" t="str">
         <f>IFERROR(VLOOKUP(D35,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16414,25 +16460,26 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D36" s="16" t="s">
-        <v>61</v>
+      <c r="B36" s="92"/>
+      <c r="D36" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>674</v>
+        <v>822</v>
       </c>
       <c r="I36" s="20" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Esophagus</v>
+        <v>Skin</v>
       </c>
       <c r="J36" s="21">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7131</v>
+        <v>7163</v>
       </c>
       <c r="K36" s="21" t="str">
         <f>VLOOKUP(D36,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16452,7 +16499,7 @@
       </c>
       <c r="O36" s="25" t="str">
         <f>VLOOKUP(D36,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Esophagus</v>
+        <v>z Skin</v>
       </c>
       <c r="P36" s="26" t="str">
         <f>IFERROR(VLOOKUP(D36,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16476,25 +16523,26 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D37" s="29" t="s">
-        <v>67</v>
+      <c r="B37" s="92"/>
+      <c r="D37" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>824</v>
+        <v>674</v>
       </c>
       <c r="I37" s="20" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Stomach</v>
+        <v>Esophagus</v>
       </c>
       <c r="J37" s="21">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7148</v>
+        <v>7131</v>
       </c>
       <c r="K37" s="21" t="str">
         <f>VLOOKUP(D37,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16514,7 +16562,7 @@
       </c>
       <c r="O37" s="25" t="str">
         <f>VLOOKUP(D37,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Stomach</v>
+        <v>z Esophagus</v>
       </c>
       <c r="P37" s="26" t="str">
         <f>IFERROR(VLOOKUP(D37,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16538,25 +16586,26 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D38" s="16" t="s">
-        <v>71</v>
+      <c r="B38" s="92"/>
+      <c r="D38" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I38" s="20" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Liver</v>
+        <v>Stomach</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7197</v>
+        <v>7148</v>
       </c>
       <c r="K38" s="21" t="str">
         <f>VLOOKUP(D38,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16576,7 +16625,7 @@
       </c>
       <c r="O38" s="25" t="str">
         <f>VLOOKUP(D38,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Liver</v>
+        <v>z Stomach</v>
       </c>
       <c r="P38" s="26" t="str">
         <f>IFERROR(VLOOKUP(D38,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16600,25 +16649,26 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="G39" s="91" t="s">
-        <v>675</v>
+      <c r="B39" s="92"/>
+      <c r="D39" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>824</v>
       </c>
       <c r="I39" s="20" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Set of ribs</v>
+        <v>Liver</v>
       </c>
       <c r="J39" s="21">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>71331</v>
+        <v>7197</v>
       </c>
       <c r="K39" s="21" t="str">
         <f>VLOOKUP(D39,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16638,7 +16688,7 @@
       </c>
       <c r="O39" s="25" t="str">
         <f>VLOOKUP(D39,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Bone Rendering</v>
+        <v>z Liver</v>
       </c>
       <c r="P39" s="26" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16652,224 +16702,228 @@
         <f>IFERROR(VLOOKUP(D39,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="26" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v>200</v>
-      </c>
-      <c r="T39" s="28">
+        <v/>
+      </c>
+      <c r="T39" s="28" t="str">
         <f>IFERROR(VLOOKUP(D39,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v>2500</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D40" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="88" t="s">
-        <v>669</v>
-      </c>
-      <c r="I40" s="20" t="str">
+      <c r="B40" s="92"/>
+      <c r="D40" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="91" t="s">
+        <v>675</v>
+      </c>
+      <c r="I40" s="101" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Larynx</v>
-      </c>
-      <c r="J40" s="21">
+        <v>Set of ribs</v>
+      </c>
+      <c r="J40" s="100">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>55097</v>
-      </c>
-      <c r="K40" s="21" t="str">
+        <v>71331</v>
+      </c>
+      <c r="K40" s="100" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="L40" s="22" t="str">
+      <c r="L40" s="99" t="str">
         <f>VLOOKUP(D40,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="M40" s="23" t="str">
+      <c r="M40" s="98" t="str">
         <f>VLOOKUP(D40,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N40" s="24" t="str">
+      <c r="N40" s="97" t="str">
         <f>VLOOKUP(D40,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O40" s="25" t="str">
+      <c r="O40" s="96" t="str">
         <f>VLOOKUP(D40,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Larynx</v>
-      </c>
-      <c r="P40" s="26" t="str">
+        <v>z Bone Rendering</v>
+      </c>
+      <c r="P40" s="94" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q40" s="27" t="str">
+      <c r="Q40" s="95" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R40" s="28" t="str">
+      <c r="R40" s="93" t="str">
         <f>IFERROR(VLOOKUP(D40,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S40" s="26" t="str">
+      <c r="S40" s="94">
         <f>IFERROR(VLOOKUP(D40,[1]!SearchCT[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="T40" s="28" t="str">
+        <v>200</v>
+      </c>
+      <c r="T40" s="93">
         <f>IFERROR(VLOOKUP(D40,[1]!SearchCT[#Data],3,FALSE),"")</f>
-        <v/>
+        <v>2500</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
       <c r="D41" s="84" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="E41" s="85" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="F41" s="85" t="s">
-        <v>837</v>
+        <v>108</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>838</v>
-      </c>
-      <c r="I41" s="20" t="str">
+        <v>669</v>
+      </c>
+      <c r="I41" s="101" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Left kidney</v>
-      </c>
-      <c r="J41" s="21">
+        <v>Larynx</v>
+      </c>
+      <c r="J41" s="100">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7205</v>
-      </c>
-      <c r="K41" s="21" t="str">
+        <v>55097</v>
+      </c>
+      <c r="K41" s="100" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="L41" s="22" t="str">
+      <c r="L41" s="99" t="str">
         <f>VLOOKUP(D41,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="M41" s="23" t="str">
+      <c r="M41" s="98" t="str">
         <f>VLOOKUP(D41,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N41" s="24" t="str">
+      <c r="N41" s="97" t="str">
         <f>VLOOKUP(D41,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O41" s="25" t="str">
+      <c r="O41" s="96" t="str">
         <f>VLOOKUP(D41,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Kidney L</v>
-      </c>
-      <c r="P41" s="26" t="str">
+        <v>z Larynx</v>
+      </c>
+      <c r="P41" s="94" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q41" s="27" t="str">
+      <c r="Q41" s="95" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R41" s="28" t="str">
+      <c r="R41" s="93" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S41" s="26" t="str">
+      <c r="S41" s="94" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T41" s="28" t="str">
+      <c r="T41" s="93" t="str">
         <f>IFERROR(VLOOKUP(D41,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="D42" s="84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>840</v>
-      </c>
-      <c r="I42" s="20" t="str">
+        <v>836</v>
+      </c>
+      <c r="I42" s="101" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Right kidney</v>
-      </c>
-      <c r="J42" s="21">
+        <v>Left kidney</v>
+      </c>
+      <c r="J42" s="100">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7204</v>
-      </c>
-      <c r="K42" s="21" t="str">
+        <v>7205</v>
+      </c>
+      <c r="K42" s="100" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="L42" s="22" t="str">
+      <c r="L42" s="99" t="str">
         <f>VLOOKUP(D42,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="M42" s="23" t="str">
+      <c r="M42" s="98" t="str">
         <f>VLOOKUP(D42,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N42" s="24" t="str">
+      <c r="N42" s="97" t="str">
         <f>VLOOKUP(D42,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O42" s="25" t="str">
+      <c r="O42" s="96" t="str">
         <f>VLOOKUP(D42,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Kidney R</v>
-      </c>
-      <c r="P42" s="26" t="str">
+        <v>z Kidney L</v>
+      </c>
+      <c r="P42" s="94" t="str">
         <f>IFERROR(VLOOKUP(D42,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q42" s="27" t="str">
+      <c r="Q42" s="95" t="str">
         <f>IFERROR(VLOOKUP(D42,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R42" s="28" t="str">
+      <c r="R42" s="93" t="str">
         <f>IFERROR(VLOOKUP(D42,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S42" s="26" t="str">
+      <c r="S42" s="94" t="str">
         <f>IFERROR(VLOOKUP(D42,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T42" s="28" t="str">
+      <c r="T42" s="93" t="str">
         <f>IFERROR(VLOOKUP(D42,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="D43" s="84" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G43" s="88" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="I43" s="20" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Set of kidneys</v>
-      </c>
-      <c r="J43" s="21" t="str">
+        <v>Right kidney</v>
+      </c>
+      <c r="J43" s="21">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>264815</v>
+        <v>7204</v>
       </c>
       <c r="K43" s="21" t="str">
         <f>VLOOKUP(D43,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16889,7 +16943,7 @@
       </c>
       <c r="O43" s="25" t="str">
         <f>VLOOKUP(D43,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Kidney B</v>
+        <v>z Kidney R</v>
       </c>
       <c r="P43" s="26" t="str">
         <f>IFERROR(VLOOKUP(D43,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16914,25 +16968,26 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="D44" s="84" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>172</v>
+        <v>839</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="I44" s="20" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Large intestine</v>
-      </c>
-      <c r="J44" s="21">
+        <v>Set of kidneys</v>
+      </c>
+      <c r="J44" s="21" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7201</v>
+        <v>264815</v>
       </c>
       <c r="K44" s="21" t="str">
         <f>VLOOKUP(D44,[1]!Dictionary[#All],5,FALSE)</f>
@@ -16952,7 +17007,7 @@
       </c>
       <c r="O44" s="25" t="str">
         <f>VLOOKUP(D44,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Large Bowel</v>
+        <v>z Kidney B</v>
       </c>
       <c r="P44" s="26" t="str">
         <f>IFERROR(VLOOKUP(D44,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -16977,214 +17032,217 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
       <c r="D45" s="84" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="E45" s="85" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>844</v>
-      </c>
-      <c r="I45" s="101" t="str">
+        <v>841</v>
+      </c>
+      <c r="I45" s="20" t="str">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Small intestine</v>
-      </c>
-      <c r="J45" s="100">
+        <v>Large intestine</v>
+      </c>
+      <c r="J45" s="21">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7200</v>
-      </c>
-      <c r="K45" s="100" t="str">
+        <v>7201</v>
+      </c>
+      <c r="K45" s="21" t="str">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="L45" s="99" t="str">
+      <c r="L45" s="22" t="str">
         <f>VLOOKUP(D45,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="M45" s="98" t="str">
+      <c r="M45" s="23" t="str">
         <f>VLOOKUP(D45,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N45" s="97" t="str">
+      <c r="N45" s="24" t="str">
         <f>VLOOKUP(D45,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O45" s="96" t="str">
+      <c r="O45" s="25" t="str">
         <f>VLOOKUP(D45,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Small Bowel</v>
-      </c>
-      <c r="P45" s="94" t="str">
+        <v>z Large Bowel</v>
+      </c>
+      <c r="P45" s="26" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q45" s="95" t="str">
+      <c r="Q45" s="27" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R45" s="93" t="str">
+      <c r="R45" s="28" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S45" s="94" t="str">
+      <c r="S45" s="26" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T45" s="93" t="str">
+      <c r="T45" s="28" t="str">
         <f>IFERROR(VLOOKUP(D45,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
       <c r="D46" s="84" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G46" s="88" t="s">
-        <v>673</v>
-      </c>
-      <c r="I46" s="101" t="str">
+        <v>842</v>
+      </c>
+      <c r="I46" s="20" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Duodenum</v>
-      </c>
-      <c r="J46" s="100">
+        <v>Small intestine</v>
+      </c>
+      <c r="J46" s="21">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>7206</v>
-      </c>
-      <c r="K46" s="100" t="str">
+        <v>7200</v>
+      </c>
+      <c r="K46" s="21" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],5,FALSE)</f>
         <v>FMA</v>
       </c>
-      <c r="L46" s="99" t="str">
+      <c r="L46" s="22" t="str">
         <f>VLOOKUP(D46,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.2</v>
       </c>
-      <c r="M46" s="98" t="str">
+      <c r="M46" s="23" t="str">
         <f>VLOOKUP(D46,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="N46" s="97" t="str">
+      <c r="N46" s="24" t="str">
         <f>VLOOKUP(D46,[1]!VolumeType[#All],3,FALSE)</f>
         <v>Organ</v>
       </c>
-      <c r="O46" s="96" t="str">
+      <c r="O46" s="25" t="str">
         <f>VLOOKUP(D46,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Duodenum</v>
-      </c>
-      <c r="P46" s="94" t="str">
+        <v>z Small Bowel</v>
+      </c>
+      <c r="P46" s="26" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q46" s="95" t="str">
+      <c r="Q46" s="27" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R46" s="93" t="str">
+      <c r="R46" s="28" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S46" s="94" t="str">
+      <c r="S46" s="26" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T46" s="93" t="str">
+      <c r="T46" s="28" t="str">
         <f>IFERROR(VLOOKUP(D46,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="92"/>
-      <c r="D47" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>826</v>
-      </c>
-      <c r="I47" s="101" t="str">
+      <c r="D47" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="88" t="s">
+        <v>673</v>
+      </c>
+      <c r="I47" s="20" t="str">
         <f>VLOOKUP(D47,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Control Region</v>
-      </c>
-      <c r="J47" s="100" t="str">
+        <v>Duodenum</v>
+      </c>
+      <c r="J47" s="21">
         <f>VLOOKUP(D47,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Control</v>
-      </c>
-      <c r="K47" s="100" t="str">
+        <v>7206</v>
+      </c>
+      <c r="K47" s="21" t="str">
         <f>VLOOKUP(D47,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>99VMS_STRUCTCODE</v>
-      </c>
-      <c r="L47" s="99" t="str">
+        <v>FMA</v>
+      </c>
+      <c r="L47" s="22" t="str">
         <f>VLOOKUP(D47,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>1.0</v>
-      </c>
-      <c r="M47" s="98" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="M47" s="23" t="str">
         <f>VLOOKUP(D47,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Control</v>
-      </c>
-      <c r="N47" s="97" t="str">
+        <v>Organ</v>
+      </c>
+      <c r="N47" s="24" t="str">
         <f>VLOOKUP(D47,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
-      </c>
-      <c r="O47" s="96" t="str">
+        <v>Organ</v>
+      </c>
+      <c r="O47" s="25" t="str">
         <f>VLOOKUP(D47,[1]!Colors[#All],3,FALSE)</f>
-        <v>zBronchialTrPRV</v>
-      </c>
-      <c r="P47" s="94" t="str">
+        <v>z Duodenum</v>
+      </c>
+      <c r="P47" s="26" t="str">
         <f>IFERROR(VLOOKUP(D47,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q47" s="95" t="str">
+      <c r="Q47" s="27" t="str">
         <f>IFERROR(VLOOKUP(D47,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R47" s="93" t="str">
+      <c r="R47" s="28" t="str">
         <f>IFERROR(VLOOKUP(D47,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S47" s="94" t="str">
+      <c r="S47" s="26" t="str">
         <f>IFERROR(VLOOKUP(D47,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T47" s="93" t="str">
+      <c r="T47" s="28" t="str">
         <f>IFERROR(VLOOKUP(D47,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="92"/>
-      <c r="D48" s="83" t="s">
-        <v>285</v>
+      <c r="B48" s="92"/>
+      <c r="D48" s="63" t="s">
+        <v>286</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>807</v>
+        <v>891</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I48" s="101" t="str">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Irrad Volume</v>
+        <v>Control Region</v>
       </c>
       <c r="J48" s="100" t="str">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Irrad Volume</v>
+        <v>Control</v>
       </c>
       <c r="K48" s="100" t="str">
         <f>VLOOKUP(D48,[1]!Dictionary[#All],5,FALSE)</f>
@@ -17200,11 +17258,11 @@
       </c>
       <c r="N48" s="97" t="str">
         <f>VLOOKUP(D48,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Control</v>
+        <v>Avoidance</v>
       </c>
       <c r="O48" s="96" t="str">
         <f>VLOOKUP(D48,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Irradiated Vol</v>
+        <v>zBronchialTrPRV</v>
       </c>
       <c r="P48" s="94" t="str">
         <f>IFERROR(VLOOKUP(D48,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -17229,25 +17287,26 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="92"/>
-      <c r="D49" s="62" t="s">
-        <v>263</v>
+      <c r="B49" s="92"/>
+      <c r="D49" s="83" t="s">
+        <v>285</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I49" s="101" t="str">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Undefined Normal Tissue</v>
+        <v>Irrad Volume</v>
       </c>
       <c r="J49" s="100" t="str">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>NormalTissue</v>
+        <v>Irrad Volume</v>
       </c>
       <c r="K49" s="100" t="str">
         <f>VLOOKUP(D49,[1]!Dictionary[#All],5,FALSE)</f>
@@ -17263,11 +17322,11 @@
       </c>
       <c r="N49" s="97" t="str">
         <f>VLOOKUP(D49,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Avoidance</v>
+        <v>Control</v>
       </c>
       <c r="O49" s="96" t="str">
         <f>VLOOKUP(D49,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Normal Tissue</v>
+        <v>z Irradiated Vol</v>
       </c>
       <c r="P49" s="94" t="str">
         <f>IFERROR(VLOOKUP(D49,[1]!DVH_lines[#Data],2,FALSE),"")</f>
@@ -17292,25 +17351,26 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="92"/>
-      <c r="D50" s="16" t="s">
-        <v>444</v>
+      <c r="B50" s="92"/>
+      <c r="D50" s="62" t="s">
+        <v>263</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>445</v>
+        <v>807</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>446</v>
+        <v>808</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I50" s="101" t="str">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Dose</v>
+        <v>Undefined Normal Tissue</v>
       </c>
       <c r="J50" s="100" t="str">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>Dose</v>
+        <v>NormalTissue</v>
       </c>
       <c r="K50" s="100" t="str">
         <f>VLOOKUP(D50,[1]!Dictionary[#All],5,FALSE)</f>
@@ -17326,23 +17386,23 @@
       </c>
       <c r="N50" s="97" t="str">
         <f>VLOOKUP(D50,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>Dose Region</v>
+        <v>Avoidance</v>
       </c>
       <c r="O50" s="96" t="str">
         <f>VLOOKUP(D50,[1]!Colors[#All],3,FALSE)</f>
-        <v>z Dose</v>
-      </c>
-      <c r="P50" s="94">
+        <v>z Normal Tissue</v>
+      </c>
+      <c r="P50" s="94" t="str">
         <f>IFERROR(VLOOKUP(D50,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v>-16777216</v>
-      </c>
-      <c r="Q50" s="95">
+        <v/>
+      </c>
+      <c r="Q50" s="95" t="str">
         <f>IFERROR(VLOOKUP(D50,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v>2</v>
-      </c>
-      <c r="R50" s="93">
+        <v/>
+      </c>
+      <c r="R50" s="93" t="str">
         <f>IFERROR(VLOOKUP(D50,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="S50" s="94" t="str">
         <f>IFERROR(VLOOKUP(D50,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -17355,57 +17415,58 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="92"/>
-      <c r="D51" s="29" t="s">
-        <v>234</v>
+      <c r="B51" s="92"/>
+      <c r="D51" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>235</v>
+        <v>445</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>236</v>
+        <v>446</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>700</v>
+        <v>828</v>
       </c>
       <c r="I51" s="101" t="str">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="J51" s="100">
+        <v>Dose</v>
+      </c>
+      <c r="J51" s="100" t="str">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
+        <v>Dose</v>
       </c>
       <c r="K51" s="100" t="str">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="L51" s="99">
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L51" s="99" t="str">
         <f>VLOOKUP(D51,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
+        <v>1.0</v>
       </c>
       <c r="M51" s="98" t="str">
         <f>VLOOKUP(D51,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
+        <v>Control</v>
       </c>
       <c r="N51" s="97" t="str">
         <f>VLOOKUP(D51,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
+        <v>Dose Region</v>
       </c>
       <c r="O51" s="96" t="str">
         <f>VLOOKUP(D51,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="P51" s="94" t="str">
+        <v>z Dose</v>
+      </c>
+      <c r="P51" s="94">
         <f>IFERROR(VLOOKUP(D51,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="95" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="Q51" s="95">
         <f>IFERROR(VLOOKUP(D51,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R51" s="93" t="str">
+        <v>2</v>
+      </c>
+      <c r="R51" s="93">
         <f>IFERROR(VLOOKUP(D51,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S51" s="94" t="str">
         <f>IFERROR(VLOOKUP(D51,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -17418,57 +17479,58 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
       <c r="D52" s="16" t="s">
-        <v>234</v>
+        <v>444</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>237</v>
+        <v>886</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>236</v>
+        <v>887</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>700</v>
+        <v>828</v>
       </c>
       <c r="I52" s="101" t="str">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="J52" s="100">
+        <v>Dose</v>
+      </c>
+      <c r="J52" s="100" t="str">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
+        <v>Dose</v>
       </c>
       <c r="K52" s="100" t="str">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="L52" s="99">
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L52" s="99" t="str">
         <f>VLOOKUP(D52,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
+        <v>1.0</v>
       </c>
       <c r="M52" s="98" t="str">
         <f>VLOOKUP(D52,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
+        <v>Control</v>
       </c>
       <c r="N52" s="97" t="str">
         <f>VLOOKUP(D52,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
+        <v>Dose Region</v>
       </c>
       <c r="O52" s="96" t="str">
         <f>VLOOKUP(D52,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="P52" s="94" t="str">
+        <v>z Dose</v>
+      </c>
+      <c r="P52" s="94">
         <f>IFERROR(VLOOKUP(D52,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q52" s="95" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="Q52" s="95">
         <f>IFERROR(VLOOKUP(D52,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R52" s="93" t="str">
+        <v>2</v>
+      </c>
+      <c r="R52" s="93">
         <f>IFERROR(VLOOKUP(D52,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="S52" s="94" t="str">
         <f>IFERROR(VLOOKUP(D52,[1]!SearchCT[#Data],2,FALSE),"")</f>
@@ -17481,74 +17543,76 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="92"/>
-      <c r="D53" s="29" t="s">
-        <v>234</v>
+      <c r="B53" s="92"/>
+      <c r="D53" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>251</v>
+        <v>888</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>236</v>
+        <v>889</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="I53" s="20" t="str">
+        <v>828</v>
+      </c>
+      <c r="I53" s="101" t="str">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],3,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="J53" s="21">
+        <v>Dose</v>
+      </c>
+      <c r="J53" s="100" t="str">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],4,FALSE)</f>
-        <v>11296</v>
-      </c>
-      <c r="K53" s="21" t="str">
+        <v>Dose</v>
+      </c>
+      <c r="K53" s="100" t="str">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],5,FALSE)</f>
-        <v>RADLEX</v>
-      </c>
-      <c r="L53" s="22">
+        <v>99VMS_STRUCTCODE</v>
+      </c>
+      <c r="L53" s="99" t="str">
         <f>VLOOKUP(D53,[1]!Dictionary[#All],6,FALSE)</f>
-        <v>3.8</v>
-      </c>
-      <c r="M53" s="23" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="M53" s="98" t="str">
         <f>VLOOKUP(D53,[1]!VolumeType[#All],2,FALSE)</f>
-        <v>Artifact</v>
-      </c>
-      <c r="N53" s="24" t="str">
+        <v>Control</v>
+      </c>
+      <c r="N53" s="97" t="str">
         <f>VLOOKUP(D53,[1]!VolumeType[#All],3,FALSE)</f>
-        <v>None</v>
-      </c>
-      <c r="O53" s="25" t="str">
+        <v>Dose Region</v>
+      </c>
+      <c r="O53" s="96" t="str">
         <f>VLOOKUP(D53,[1]!Colors[#All],3,FALSE)</f>
-        <v>z RO Helper</v>
-      </c>
-      <c r="P53" s="26" t="str">
+        <v>z Dose</v>
+      </c>
+      <c r="P53" s="94">
         <f>IFERROR(VLOOKUP(D53,[1]!DVH_lines[#Data],2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="Q53" s="27" t="str">
+        <v>-16777216</v>
+      </c>
+      <c r="Q53" s="95">
         <f>IFERROR(VLOOKUP(D53,[1]!DVH_lines[#Data],3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="R53" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="R53" s="93">
         <f>IFERROR(VLOOKUP(D53,[1]!DVH_lines[#Data],4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="S53" s="26" t="str">
+        <v>5</v>
+      </c>
+      <c r="S53" s="94" t="str">
         <f>IFERROR(VLOOKUP(D53,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T53" s="28" t="str">
+      <c r="T53" s="93" t="str">
         <f>IFERROR(VLOOKUP(D53,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="92"/>
-      <c r="D54" s="16" t="s">
+      <c r="B54" s="92"/>
+      <c r="D54" s="29" t="s">
         <v>234</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>236</v>
@@ -17556,62 +17620,63 @@
       <c r="G54" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="I54" s="20" t="str">
+      <c r="I54" s="101" t="str">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="100">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="K54" s="21" t="str">
+      <c r="K54" s="100" t="str">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54" s="99">
         <f>VLOOKUP(D54,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="M54" s="23" t="str">
+      <c r="M54" s="98" t="str">
         <f>VLOOKUP(D54,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="N54" s="24" t="str">
+      <c r="N54" s="97" t="str">
         <f>VLOOKUP(D54,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="O54" s="25" t="str">
+      <c r="O54" s="96" t="str">
         <f>VLOOKUP(D54,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="P54" s="26" t="str">
+      <c r="P54" s="94" t="str">
         <f>IFERROR(VLOOKUP(D54,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q54" s="27" t="str">
+      <c r="Q54" s="95" t="str">
         <f>IFERROR(VLOOKUP(D54,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R54" s="28" t="str">
+      <c r="R54" s="93" t="str">
         <f>IFERROR(VLOOKUP(D54,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S54" s="26" t="str">
+      <c r="S54" s="94" t="str">
         <f>IFERROR(VLOOKUP(D54,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T54" s="28" t="str">
+      <c r="T54" s="93" t="str">
         <f>IFERROR(VLOOKUP(D54,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="92"/>
-      <c r="D55" s="29" t="s">
+      <c r="B55" s="92"/>
+      <c r="D55" s="16" t="s">
         <v>234</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>236</v>
@@ -17619,66 +17684,252 @@
       <c r="G55" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="I55" s="39" t="str">
+      <c r="I55" s="101" t="str">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],3,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="J55" s="40">
+      <c r="J55" s="100">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],4,FALSE)</f>
         <v>11296</v>
       </c>
-      <c r="K55" s="40" t="str">
+      <c r="K55" s="100" t="str">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],5,FALSE)</f>
         <v>RADLEX</v>
       </c>
-      <c r="L55" s="41">
+      <c r="L55" s="99">
         <f>VLOOKUP(D55,[1]!Dictionary[#All],6,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="M55" s="42" t="str">
+      <c r="M55" s="98" t="str">
         <f>VLOOKUP(D55,[1]!VolumeType[#All],2,FALSE)</f>
         <v>Artifact</v>
       </c>
-      <c r="N55" s="43" t="str">
+      <c r="N55" s="97" t="str">
         <f>VLOOKUP(D55,[1]!VolumeType[#All],3,FALSE)</f>
         <v>None</v>
       </c>
-      <c r="O55" s="44" t="str">
+      <c r="O55" s="96" t="str">
         <f>VLOOKUP(D55,[1]!Colors[#All],3,FALSE)</f>
         <v>z RO Helper</v>
       </c>
-      <c r="P55" s="45" t="str">
+      <c r="P55" s="94" t="str">
         <f>IFERROR(VLOOKUP(D55,[1]!DVH_lines[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="Q55" s="46" t="str">
+      <c r="Q55" s="95" t="str">
         <f>IFERROR(VLOOKUP(D55,[1]!DVH_lines[#Data],3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="R55" s="47" t="str">
+      <c r="R55" s="93" t="str">
         <f>IFERROR(VLOOKUP(D55,[1]!DVH_lines[#Data],4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="S55" s="45" t="str">
+      <c r="S55" s="94" t="str">
         <f>IFERROR(VLOOKUP(D55,[1]!SearchCT[#Data],2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="T55" s="47" t="str">
+      <c r="T55" s="93" t="str">
         <f>IFERROR(VLOOKUP(D55,[1]!SearchCT[#Data],3,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
+      <c r="D56" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="I56" s="20" t="str">
+        <f>VLOOKUP(D56,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="J56" s="21">
+        <f>VLOOKUP(D56,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="K56" s="21" t="str">
+        <f>VLOOKUP(D56,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="L56" s="22">
+        <f>VLOOKUP(D56,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M56" s="23" t="str">
+        <f>VLOOKUP(D56,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="N56" s="24" t="str">
+        <f>VLOOKUP(D56,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="O56" s="25" t="str">
+        <f>VLOOKUP(D56,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="P56" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D56,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q56" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D56,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R56" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D56,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S56" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D56,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T56" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D56,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="92"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="92"/>
+      <c r="D57" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="I57" s="20" t="str">
+        <f>VLOOKUP(D57,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="J57" s="21">
+        <f>VLOOKUP(D57,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="K57" s="21" t="str">
+        <f>VLOOKUP(D57,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="L57" s="22">
+        <f>VLOOKUP(D57,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M57" s="23" t="str">
+        <f>VLOOKUP(D57,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="N57" s="24" t="str">
+        <f>VLOOKUP(D57,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="O57" s="25" t="str">
+        <f>VLOOKUP(D57,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="P57" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D57,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q57" s="27" t="str">
+        <f>IFERROR(VLOOKUP(D57,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R57" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D57,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S57" s="26" t="str">
+        <f>IFERROR(VLOOKUP(D57,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T57" s="28" t="str">
+        <f>IFERROR(VLOOKUP(D57,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
+      <c r="D58" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="I58" s="39" t="str">
+        <f>VLOOKUP(D58,[1]!Dictionary[#All],3,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="J58" s="40">
+        <f>VLOOKUP(D58,[1]!Dictionary[#All],4,FALSE)</f>
+        <v>11296</v>
+      </c>
+      <c r="K58" s="40" t="str">
+        <f>VLOOKUP(D58,[1]!Dictionary[#All],5,FALSE)</f>
+        <v>RADLEX</v>
+      </c>
+      <c r="L58" s="41">
+        <f>VLOOKUP(D58,[1]!Dictionary[#All],6,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M58" s="42" t="str">
+        <f>VLOOKUP(D58,[1]!VolumeType[#All],2,FALSE)</f>
+        <v>Artifact</v>
+      </c>
+      <c r="N58" s="43" t="str">
+        <f>VLOOKUP(D58,[1]!VolumeType[#All],3,FALSE)</f>
+        <v>None</v>
+      </c>
+      <c r="O58" s="44" t="str">
+        <f>VLOOKUP(D58,[1]!Colors[#All],3,FALSE)</f>
+        <v>z RO Helper</v>
+      </c>
+      <c r="P58" s="45" t="str">
+        <f>IFERROR(VLOOKUP(D58,[1]!DVH_lines[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q58" s="46" t="str">
+        <f>IFERROR(VLOOKUP(D58,[1]!DVH_lines[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R58" s="47" t="str">
+        <f>IFERROR(VLOOKUP(D58,[1]!DVH_lines[#Data],4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="S58" s="45" t="str">
+        <f>IFERROR(VLOOKUP(D58,[1]!SearchCT[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="T58" s="47" t="str">
+        <f>IFERROR(VLOOKUP(D58,[1]!SearchCT[#Data],3,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="92"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D60" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -24898,7 +25149,7 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
@@ -36753,7 +37004,7 @@
         <v>68</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G5" s="74"/>
       <c r="I5" s="20" t="str">
@@ -36884,7 +37135,7 @@
         <v>266</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G7" s="74"/>
       <c r="I7" s="20" t="str">
@@ -36945,10 +37196,10 @@
         <v>265</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G8" s="74"/>
       <c r="I8" s="20" t="str">
@@ -37011,10 +37262,10 @@
         <v>262</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G9" s="74"/>
       <c r="I9" s="20" t="str">
@@ -37077,7 +37328,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F10" s="74" t="s">
         <v>708</v>
@@ -37143,7 +37394,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F11" s="74" t="s">
         <v>709</v>
@@ -37209,7 +37460,7 @@
         <v>430</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F12" s="74" t="s">
         <v>710</v>
@@ -37275,7 +37526,7 @@
         <v>711</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F13" s="74" t="s">
         <v>712</v>
@@ -37335,7 +37586,7 @@
         <v>713</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F14" s="74" t="s">
         <v>714</v>
@@ -37395,7 +37646,7 @@
         <v>227</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>715</v>
@@ -37455,7 +37706,7 @@
         <v>571</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F16" s="74" t="s">
         <v>716</v>
@@ -37515,7 +37766,7 @@
         <v>717</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>718</v>
@@ -37575,7 +37826,7 @@
         <v>719</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>720</v>
@@ -37635,7 +37886,7 @@
         <v>559</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F19" s="74" t="s">
         <v>721</v>
@@ -37695,7 +37946,7 @@
         <v>556</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F20" s="74" t="s">
         <v>722</v>
@@ -37755,7 +38006,7 @@
         <v>269</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F21" s="74" t="s">
         <v>723</v>
@@ -37815,7 +38066,7 @@
         <v>547</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F22" s="74" t="s">
         <v>724</v>
@@ -40275,10 +40526,10 @@
         <v>589</v>
       </c>
       <c r="E63" s="74" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F63" s="74" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G63" s="74"/>
       <c r="I63" s="20" t="str">
@@ -40335,10 +40586,10 @@
         <v>592</v>
       </c>
       <c r="E64" s="74" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F64" s="74" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G64" s="74"/>
       <c r="I64" s="20" t="str">
@@ -40995,7 +41246,7 @@
         <v>354</v>
       </c>
       <c r="E75" s="74" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F75" s="74" t="s">
         <v>640</v>
@@ -41055,7 +41306,7 @@
         <v>633</v>
       </c>
       <c r="E76" s="74" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F76" s="74" t="s">
         <v>635</v>
@@ -41115,7 +41366,7 @@
         <v>636</v>
       </c>
       <c r="E77" s="74" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F77" s="74" t="s">
         <v>638</v>
@@ -41175,7 +41426,7 @@
         <v>314</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F78" s="74" t="s">
         <v>619</v>
@@ -41235,7 +41486,7 @@
         <v>620</v>
       </c>
       <c r="E79" s="74" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F79" s="74" t="s">
         <v>622</v>
@@ -41295,7 +41546,7 @@
         <v>623</v>
       </c>
       <c r="E80" s="74" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F80" s="74" t="s">
         <v>625</v>
@@ -41355,7 +41606,7 @@
         <v>315</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F81" s="80" t="s">
         <v>627</v>
@@ -41415,7 +41666,7 @@
         <v>316</v>
       </c>
       <c r="E82" s="80" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F82" s="80" t="s">
         <v>629</v>
@@ -41475,7 +41726,7 @@
         <v>630</v>
       </c>
       <c r="E83" s="80" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F83" s="80" t="s">
         <v>632</v>
@@ -41532,13 +41783,13 @@
     </row>
     <row r="84" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D84" s="102" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E84" s="103" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F84" s="103" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G84" s="104"/>
       <c r="I84" s="20" t="str">
@@ -41592,13 +41843,13 @@
     </row>
     <row r="85" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D85" s="102" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E85" s="103" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F85" s="103" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G85" s="104"/>
       <c r="I85" s="101" t="str">
@@ -41652,13 +41903,13 @@
     </row>
     <row r="86" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D86" s="102" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E86" s="103" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F86" s="103" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="G86" s="104"/>
       <c r="I86" s="101" t="str">
